--- a/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
+++ b/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="496">
   <si>
     <t>input_file</t>
   </si>
@@ -1497,6 +1497,18 @@
   </si>
   <si>
     <t>WHEAT</t>
+  </si>
+  <si>
+    <t>renewal_of_soil_solution</t>
+  </si>
+  <si>
+    <t>interval_between_renewal_events</t>
+  </si>
+  <si>
+    <t>Interval of time between two soil solution's renewal events</t>
+  </si>
+  <si>
+    <t>Option to artificially renew the soil solution and set the rhizodeposits concentrations to 0 at regular interval of time</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2158,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2345,6 +2357,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2719,13 +2734,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E199"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2734,7 +2749,6 @@
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="43" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2751,7 +2765,7 @@
         <v>386</v>
       </c>
       <c r="E1" s="42">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2870,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="90">
-        <f t="shared" ref="E8" si="0">E7*3</f>
+        <f>E7*3</f>
         <v>0.125000001</v>
       </c>
     </row>
@@ -3006,84 +3020,85 @@
       <c r="D16" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="91" t="s">
-        <v>87</v>
+      <c r="E16" s="37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>87</v>
+      <c r="D17" s="59" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="60">
-        <v>3</v>
+      <c r="A18" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="59">
+        <f>24*60*60</f>
+        <v>86400</v>
       </c>
       <c r="E18" s="37">
-        <v>3</v>
+        <v>86400</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>370</v>
+        <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>371</v>
+        <v>136</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>373</v>
+        <v>121</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="D20" s="60">
+        <v>3</v>
+      </c>
+      <c r="E20" s="37">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>96</v>
@@ -3091,16 +3106,16 @@
       <c r="D21" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>96</v>
@@ -3114,10 +3129,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>96</v>
@@ -3125,16 +3140,16 @@
       <c r="D23" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="37" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>12</v>
+        <v>383</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>142</v>
+        <v>381</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>96</v>
@@ -3142,33 +3157,33 @@
       <c r="D24" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>13</v>
+        <v>382</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>122</v>
+        <v>380</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="60">
-        <v>0.33</v>
-      </c>
-      <c r="E25" s="37">
-        <v>0.33</v>
+        <v>96</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>96</v>
@@ -3182,27 +3197,27 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="D27" s="60">
+        <v>0.33</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>476</v>
+        <v>14</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>477</v>
+        <v>137</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>96</v>
@@ -3215,113 +3230,113 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" s="15" t="s">
+      <c r="A29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="95" t="s">
+      <c r="D29" s="60" t="s">
         <v>88</v>
       </c>
+      <c r="E29" s="37" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>390</v>
+      <c r="A30" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>445</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="49">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E31" s="39">
-        <v>9.9999999999999995E-7</v>
+        <v>96</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="49">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E32" s="39">
-        <v>1E-3</v>
+        <v>92</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="D33" s="49">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E33" s="39">
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="D34" s="49">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E34" s="39">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>96</v>
@@ -3335,129 +3350,129 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="58">
-        <v>120</v>
-      </c>
-      <c r="E37" s="37">
-        <v>120</v>
+        <v>96</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="58">
-        <v>0</v>
-      </c>
-      <c r="E38" s="37">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="58">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E39" s="37">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D40" s="58">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="37">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>485</v>
+        <v>31</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D41" s="58">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="37">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>486</v>
+        <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>484</v>
+        <v>147</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D42" s="58">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E42" s="37">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>33</v>
+        <v>485</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>148</v>
+        <v>483</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>100</v>
@@ -3466,338 +3481,338 @@
         <v>-0.2</v>
       </c>
       <c r="E43" s="37">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>35</v>
+        <v>486</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>149</v>
+        <v>484</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D44" s="58">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E44" s="37">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>446</v>
+        <v>33</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>448</v>
+        <v>148</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D45" s="58">
-        <v>1200</v>
+        <v>-0.2</v>
       </c>
       <c r="E45" s="37">
-        <v>1200</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>447</v>
+        <v>35</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>449</v>
+        <v>149</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D46" s="58">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E46" s="37">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>481</v>
+        <v>97</v>
+      </c>
+      <c r="D47" s="58">
+        <v>1200</v>
+      </c>
+      <c r="E47" s="37">
+        <v>1200</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="58">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="37">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B50" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D50" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E50" s="37" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="63">
-        <v>0</v>
-      </c>
-      <c r="E50" s="37">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="37">
-        <v>0.5</v>
+        <v>96</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="63">
+        <v>0</v>
+      </c>
+      <c r="E52" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="63">
         <v>0.05</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E54" s="37">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="64">
-        <v>1E-3</v>
-      </c>
-      <c r="E53" s="39">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="64">
-        <v>0</v>
-      </c>
-      <c r="E54" s="37">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="51">
-        <v>1E-4</v>
-      </c>
-      <c r="E55" s="37">
-        <v>1E-4</v>
+        <v>100</v>
+      </c>
+      <c r="D55" s="64">
+        <v>1E-3</v>
+      </c>
+      <c r="E55" s="39">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="64">
+        <v>0</v>
+      </c>
+      <c r="E56" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="51">
+        <v>1E-4</v>
+      </c>
+      <c r="E57" s="37">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B58" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D58" s="51">
         <v>1E-4</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E58" s="37">
         <v>1E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="67">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E57" s="37">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="67">
-        <v>1.22E-4</v>
-      </c>
-      <c r="E58" s="37">
-        <v>1.22E-4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D59" s="67">
-        <v>1</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E59" s="37">
-        <v>1</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D60" s="67">
-        <v>0.95</v>
+        <v>1.22E-4</v>
       </c>
       <c r="E60" s="37">
-        <v>0.95</v>
+        <v>1.22E-4</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>415</v>
+        <v>214</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>416</v>
+        <v>292</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="D61" s="67">
+        <v>1</v>
+      </c>
+      <c r="E61" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="67">
-        <v>5</v>
+        <v>0.95</v>
       </c>
       <c r="E62" s="37">
-        <v>5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>96</v>
@@ -3811,588 +3826,588 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D64" s="67">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E64" s="37">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>215</v>
+        <v>417</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>296</v>
+        <v>418</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" s="52">
-        <v>1453890.8941884842</v>
-      </c>
-      <c r="E65" s="38">
-        <v>1453890.8941884842</v>
+        <v>96</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>389</v>
+        <v>156</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" s="67">
-        <v>1.3888888888888888E-5</v>
-      </c>
-      <c r="E66" s="38">
-        <v>1.3888888888888888E-5</v>
+        <v>50</v>
+      </c>
+      <c r="E66" s="37">
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="67">
-        <v>4.5763888888888888E-4</v>
+        <v>108</v>
+      </c>
+      <c r="D67" s="52">
+        <v>1453890.8941884842</v>
       </c>
       <c r="E67" s="38">
-        <v>6.5011574074074071E-4</v>
+        <v>1453890.8941884842</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>159</v>
+        <v>389</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D68" s="67">
-        <v>3.63E-3</v>
-      </c>
-      <c r="E68" s="37">
-        <v>4.7400000000000003E-3</v>
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="E68" s="38">
+        <v>1.3888888888888888E-5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D69" s="52">
-        <v>491356.80000000005</v>
+        <v>107</v>
+      </c>
+      <c r="D69" s="67">
+        <v>4.5763888888888888E-4</v>
       </c>
       <c r="E69" s="38">
-        <v>282528</v>
+        <v>6.5011574074074071E-4</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D70" s="67">
-        <v>0.57999999999999996</v>
+        <v>3.63E-3</v>
       </c>
       <c r="E70" s="37">
-        <v>0.56999999999999995</v>
+        <v>4.7400000000000003E-3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D71" s="67">
-        <v>0.25862068965517243</v>
-      </c>
-      <c r="E71" s="77">
-        <v>0.16</v>
+        <v>108</v>
+      </c>
+      <c r="D71" s="52">
+        <v>491356.80000000005</v>
+      </c>
+      <c r="E71" s="38">
+        <v>282528</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="67">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E72" s="37">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="67">
+        <v>0.25862068965517243</v>
+      </c>
+      <c r="E73" s="77">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B74" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C74" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="67">
+      <c r="D74" s="67">
         <v>0</v>
       </c>
-      <c r="E72" s="37">
+      <c r="E74" s="37">
         <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="D73" s="68">
-        <v>745476480000</v>
-      </c>
-      <c r="E73" s="38">
-        <v>745476480000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D74" s="68">
-        <v>100</v>
-      </c>
-      <c r="E74" s="37">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
-        <v>423</v>
+        <v>50</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>87</v>
+        <v>427</v>
+      </c>
+      <c r="D75" s="68">
+        <v>745476480000</v>
+      </c>
+      <c r="E75" s="38">
+        <v>745476480000</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
-        <v>408</v>
+        <v>212</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="D76" s="68">
-        <v>29203.200000000001</v>
+        <v>100</v>
       </c>
       <c r="E76" s="37">
-        <v>21600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="E77" s="37">
-        <v>0.5</v>
+        <v>96</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>108</v>
       </c>
       <c r="D78" s="68">
-        <v>387936</v>
+        <v>29203.200000000001</v>
       </c>
       <c r="E78" s="37">
-        <v>60479.999999999993</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>102</v>
       </c>
       <c r="D79" s="68">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="E79" s="37">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>108</v>
       </c>
       <c r="D80" s="68">
-        <v>518400</v>
+        <v>387936</v>
       </c>
       <c r="E80" s="37">
-        <v>518400</v>
+        <v>60479.999999999993</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="68">
+        <v>0.85</v>
+      </c>
+      <c r="E81" s="37">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D82" s="68">
+        <v>518400</v>
+      </c>
+      <c r="E82" s="37">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B83" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C83" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="68">
+      <c r="D83" s="68">
         <v>5184000</v>
       </c>
-      <c r="E81" s="37">
+      <c r="E83" s="37">
         <v>5184000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="67">
-        <v>259200</v>
-      </c>
-      <c r="E82" s="39">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D83" s="67">
-        <v>140000</v>
-      </c>
-      <c r="E83" s="37">
-        <v>140000</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="D84" s="67">
-        <v>3.6636136999999999E-2</v>
-      </c>
-      <c r="E84" s="38">
-        <v>3.6636136999999999E-2</v>
+        <v>259200</v>
+      </c>
+      <c r="E84" s="39">
+        <v>50000</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="D85" s="67">
-        <v>4.4999999999999997E-3</v>
+        <v>140000</v>
       </c>
       <c r="E85" s="37">
-        <v>4.4999999999999997E-3</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="67">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="E86" s="38">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="67">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="E87" s="37">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B88" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C88" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D86" s="67">
+      <c r="D88" s="67">
         <v>0.05</v>
       </c>
-      <c r="E86" s="37">
+      <c r="E88" s="37">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" s="69">
-        <v>6.0000000000000002E-6</v>
-      </c>
-      <c r="E87" s="37">
-        <v>6.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D88" s="69">
-        <v>1E-3</v>
-      </c>
-      <c r="E88" s="37">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="D89" s="69">
-        <v>374999999.99999994</v>
+        <v>6.0000000000000002E-6</v>
       </c>
       <c r="E89" s="37">
-        <v>374999999.99999994</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="D90" s="69">
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="E90" s="38">
-        <v>3.7037037037037038E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="E90" s="91">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D91" s="69">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="E91" s="37">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" s="69">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="E92" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B93" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C93" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D91" s="69">
+      <c r="D93" s="69">
         <v>165600</v>
       </c>
-      <c r="E91" s="37">
+      <c r="E93" s="37">
         <v>165600</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" s="58">
-        <v>20</v>
-      </c>
-      <c r="E92" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93" s="58">
-        <v>1</v>
-      </c>
-      <c r="E93" s="37">
-        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="58">
+        <v>20</v>
+      </c>
+      <c r="E94" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="58">
+        <v>1</v>
+      </c>
+      <c r="E95" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B96" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="58">
+      <c r="D96" s="58">
         <v>21</v>
       </c>
-      <c r="E94" s="37">
+      <c r="E96" s="37">
         <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D95" s="66">
-        <v>0.64</v>
-      </c>
-      <c r="E95" s="37">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="66">
-        <v>8</v>
-      </c>
-      <c r="E96" s="37">
-        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
-        <v>375</v>
+        <v>65</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>378</v>
+        <v>185</v>
       </c>
       <c r="C97" s="25" t="s">
         <v>191</v>
       </c>
       <c r="D97" s="66">
-        <v>10</v>
+        <v>0.64</v>
       </c>
       <c r="E97" s="37">
-        <v>10</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C98" s="25" t="s">
         <v>191</v>
@@ -4406,299 +4421,299 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="D99" s="66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E99" s="37">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="D100" s="66">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="E100" s="37">
-        <v>0.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D101" s="66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="D102" s="66">
-        <v>1589759.9999999998</v>
-      </c>
-      <c r="E102" s="74">
-        <v>1589759.9999999998</v>
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="37">
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D103" s="66">
-        <v>6171428.5714285718</v>
-      </c>
-      <c r="E103" s="74">
-        <v>6171428.5714285718</v>
+        <v>0</v>
+      </c>
+      <c r="E103" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D104" s="66">
-        <v>6171428.5714285718</v>
+        <v>1589759.9999999998</v>
       </c>
       <c r="E104" s="74">
-        <v>6171428.5714285718</v>
+        <v>1589759.9999999998</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="D105" s="76">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="D105" s="66">
+        <v>6171428.5714285718</v>
       </c>
       <c r="E105" s="74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6171428.5714285718</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D106" s="76">
-        <v>280800</v>
+        <v>108</v>
+      </c>
+      <c r="D106" s="66">
+        <v>6171428.5714285718</v>
       </c>
       <c r="E106" s="74">
-        <v>280800</v>
+        <v>6171428.5714285718</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D107" s="76">
+        <v>100</v>
+      </c>
+      <c r="E107" s="74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="D108" s="76">
+        <v>280800</v>
+      </c>
+      <c r="E108" s="74">
+        <v>280800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="B107" s="25" t="s">
+      <c r="B109" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C109" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="D107" s="76">
+      <c r="D109" s="76">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E107" s="74">
+      <c r="E109" s="74">
         <v>1.2847222222222224E-5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="D108" s="76">
-        <v>100</v>
-      </c>
-      <c r="E108" s="74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D109" s="76">
-        <v>459648</v>
-      </c>
-      <c r="E109" s="74">
-        <v>459648</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D110" s="76">
-        <v>1.2847222222222224E-5</v>
+        <v>100</v>
       </c>
       <c r="E110" s="74">
-        <v>1.2847222222222224E-5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>108</v>
+        <v>443</v>
       </c>
       <c r="D111" s="76">
-        <v>21600</v>
+        <v>459648</v>
       </c>
       <c r="E111" s="74">
-        <v>21600</v>
+        <v>459648</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="D112" s="76">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="E112" s="74">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" s="76">
+        <v>21600</v>
+      </c>
+      <c r="E113" s="74">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="B112" s="25" t="s">
+      <c r="B114" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C114" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D112" s="76">
+      <c r="D114" s="76">
         <v>172800</v>
       </c>
-      <c r="E112" s="74">
+      <c r="E114" s="74">
         <v>43200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D113" s="58">
-        <v>0.8</v>
-      </c>
-      <c r="E113" s="37">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D114" s="49">
-        <v>2.0833333333333335E-4</v>
-      </c>
-      <c r="E114" s="38">
-        <v>2.0833333333333335E-4</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="49">
-        <v>5.7899999999999998E-7</v>
-      </c>
-      <c r="E115" s="40">
-        <v>5.7899999999999998E-7</v>
+        <v>113</v>
+      </c>
+      <c r="D115" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="E115" s="37">
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>207</v>
@@ -4712,321 +4727,321 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
-        <v>472</v>
+        <v>63</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>474</v>
+        <v>183</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="D117" s="49">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E117" s="38">
-        <v>0</v>
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="E117" s="40">
+        <v>5.7899999999999998E-7</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>473</v>
+        <v>64</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>475</v>
+        <v>184</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>207</v>
       </c>
       <c r="D118" s="49">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="E118" s="38">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="49">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E118" s="38">
+      <c r="E119" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="79" t="s">
-        <v>454</v>
-      </c>
-      <c r="B119" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D119" s="81">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D120" s="49">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E119" s="86" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B120" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="C120" s="80" t="s">
-        <v>458</v>
-      </c>
-      <c r="D120" s="82">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E120" s="86" t="s">
-        <v>414</v>
+      <c r="E120" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="79" t="s">
+        <v>454</v>
+      </c>
+      <c r="B121" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="D121" s="81">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E121" s="86" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>458</v>
+      </c>
+      <c r="D122" s="82">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E122" s="86" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="79" t="s">
         <v>468</v>
       </c>
-      <c r="B121" s="80" t="s">
+      <c r="B123" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="C121" s="80" t="s">
+      <c r="C123" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="D121" s="82" t="s">
+      <c r="D123" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="E121" s="86" t="s">
+      <c r="E123" s="86" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D122" s="65">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E122" s="78">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="B123" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D123" s="75">
-        <v>1.0000000000000001E-9</v>
-      </c>
-      <c r="E123" s="78">
-        <v>4.9999999999999999E-13</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
-        <v>459</v>
+        <v>66</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="D124" s="65">
-        <v>10</v>
-      </c>
-      <c r="E124" s="37">
-        <v>10</v>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E124" s="78">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D125" s="65">
-        <v>-0.04</v>
-      </c>
-      <c r="E125" s="37">
-        <v>-0.04</v>
+        <v>452</v>
+      </c>
+      <c r="D125" s="75">
+        <v>1.0000000000000001E-9</v>
+      </c>
+      <c r="E125" s="78">
+        <v>4.9999999999999999E-13</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D126" s="65">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="E126" s="37">
-        <v>2.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D127" s="65">
-        <v>1</v>
+        <v>-0.04</v>
       </c>
       <c r="E127" s="37">
-        <v>1</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="79" t="s">
-        <v>453</v>
-      </c>
-      <c r="B128" s="80" t="s">
-        <v>455</v>
-      </c>
-      <c r="C128" s="80" t="s">
-        <v>456</v>
-      </c>
-      <c r="D128" s="81">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="E128" s="39">
-        <v>1.9999999999999999E-7</v>
+      <c r="A128" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" s="65">
+        <v>2.9</v>
+      </c>
+      <c r="E128" s="37">
+        <v>2.9</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>240</v>
+        <v>462</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D129" s="65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E129" s="37">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D130" s="65">
-        <v>-0.04</v>
-      </c>
-      <c r="E130" s="37">
-        <v>-0.04</v>
+      <c r="A130" s="79" t="s">
+        <v>453</v>
+      </c>
+      <c r="B130" s="80" t="s">
+        <v>455</v>
+      </c>
+      <c r="C130" s="80" t="s">
+        <v>456</v>
+      </c>
+      <c r="D130" s="81">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="E130" s="39">
+        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D131" s="65">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="E131" s="37">
-        <v>2.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D132" s="65">
-        <v>1</v>
+        <v>-0.04</v>
       </c>
       <c r="E132" s="37">
-        <v>1</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>189</v>
+        <v>325</v>
       </c>
       <c r="C133" s="23" t="s">
         <v>102</v>
       </c>
       <c r="D133" s="65">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="E133" s="37">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>190</v>
+        <v>326</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D134" s="54">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E134" s="39">
-        <v>5.0000000000000004E-6</v>
+        <v>97</v>
+      </c>
+      <c r="D134" s="65">
+        <v>1</v>
+      </c>
+      <c r="E134" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B135" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C135" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D135" s="53">
+      <c r="A135" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D135" s="65">
         <v>0</v>
       </c>
       <c r="E135" s="37">
@@ -5034,422 +5049,422 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B136" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="C136" s="25" t="s">
+      <c r="A136" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D136" s="53">
-        <v>2E-3</v>
-      </c>
-      <c r="E136" s="37">
-        <v>2E-3</v>
+      <c r="D136" s="54">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E136" s="39">
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C137" s="25" t="s">
         <v>207</v>
       </c>
       <c r="D137" s="53">
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="E137" s="39">
-        <v>3.9999999999999998E-6</v>
+        <v>0</v>
+      </c>
+      <c r="E137" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D138" s="53">
-        <v>3.7699999999999999E-10</v>
-      </c>
-      <c r="E138" s="39">
-        <v>3.7699999999999999E-10</v>
+        <v>2E-3</v>
+      </c>
+      <c r="E138" s="37">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="24" t="s">
-        <v>244</v>
+        <v>58</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>311</v>
+        <v>171</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="D139" s="53">
-        <v>20</v>
-      </c>
-      <c r="E139" s="37">
-        <v>20</v>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E139" s="39">
+        <v>3.9999999999999998E-6</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="24" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="D140" s="53">
-        <v>-0.06</v>
-      </c>
-      <c r="E140" s="37">
-        <v>-0.06</v>
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="E140" s="39">
+        <v>3.7699999999999999E-10</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D141" s="53">
-        <v>0.89100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E141" s="37">
-        <v>0.89100000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D142" s="53">
-        <v>1</v>
+        <v>-0.06</v>
       </c>
       <c r="E142" s="37">
-        <v>1</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143" s="53">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E143" s="37">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" s="53">
+        <v>1</v>
+      </c>
+      <c r="E144" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B143" s="25" t="s">
+      <c r="B145" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C143" s="25" t="s">
+      <c r="C145" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D143" s="53">
+      <c r="D145" s="53">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E143" s="39">
+      <c r="E145" s="39">
         <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D144" s="49">
-        <v>5.8333333333333335E-9</v>
-      </c>
-      <c r="E144" s="39">
-        <v>5.8333333333333335E-9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D145" s="58">
-        <v>20</v>
-      </c>
-      <c r="E145" s="37">
-        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D146" s="58">
-        <v>-0.06</v>
-      </c>
-      <c r="E146" s="37">
-        <v>-0.06</v>
+        <v>209</v>
+      </c>
+      <c r="D146" s="49">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="E146" s="39">
+        <v>5.8333333333333335E-9</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D147" s="58">
-        <v>0.89100000000000001</v>
+        <v>20</v>
       </c>
       <c r="E147" s="37">
-        <v>0.89100000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D148" s="58">
-        <v>1</v>
+        <v>-0.06</v>
       </c>
       <c r="E148" s="37">
-        <v>1</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D149" s="58">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E149" s="37">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D150" s="58">
+        <v>1</v>
+      </c>
+      <c r="E150" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B151" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C151" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D149" s="58">
+      <c r="D151" s="58">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E149" s="39">
+      <c r="E151" s="39">
         <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C150" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D150" s="48">
-        <v>4.9999999999999998E-8</v>
-      </c>
-      <c r="E150" s="78">
-        <v>4.0000000000000001E-8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C151" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" s="60">
-        <v>20</v>
-      </c>
-      <c r="E151" s="37">
-        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D152" s="60">
-        <v>-4.4200000000000003E-2</v>
-      </c>
-      <c r="E152" s="37">
-        <v>-4.4200000000000003E-2</v>
+        <v>209</v>
+      </c>
+      <c r="D152" s="48">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E152" s="78">
+        <v>4.0000000000000001E-8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D153" s="60">
-        <v>1.55</v>
+        <v>20</v>
       </c>
       <c r="E153" s="37">
-        <v>1.55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D154" s="60">
-        <v>1</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
       <c r="E154" s="37">
-        <v>1</v>
+        <v>-4.4200000000000003E-2</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D155" s="60">
+        <v>1.55</v>
+      </c>
+      <c r="E155" s="37">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D156" s="60">
+        <v>1</v>
+      </c>
+      <c r="E156" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B157" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C155" s="11" t="s">
+      <c r="C157" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D155" s="60">
+      <c r="D157" s="60">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E155" s="37">
+      <c r="E157" s="37">
         <v>2.7799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D156" s="70">
-        <v>6.3200000000000001E-3</v>
-      </c>
-      <c r="E156" s="88">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D157" s="70">
-        <v>20</v>
-      </c>
-      <c r="E157" s="37">
-        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="D158" s="70">
-        <v>0</v>
-      </c>
-      <c r="E158" s="37">
-        <v>0</v>
+        <v>6.3200000000000001E-3</v>
+      </c>
+      <c r="E158" s="88">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D159" s="70">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E159" s="37">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D160" s="70">
         <v>0</v>
@@ -5460,234 +5475,234 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="C161" s="27" t="s">
         <v>102</v>
       </c>
       <c r="D161" s="70">
+        <v>1</v>
+      </c>
+      <c r="E161" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B162" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C162" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D162" s="70">
+        <v>0</v>
+      </c>
+      <c r="E162" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D163" s="70">
         <v>0.4</v>
       </c>
-      <c r="E161" s="37">
+      <c r="E163" s="37">
         <v>0.4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="C162" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D162" s="55">
-        <v>3.2100000000000002E-6</v>
-      </c>
-      <c r="E162" s="39">
-        <v>2.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B163" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D163" s="71">
-        <v>25</v>
-      </c>
-      <c r="E163" s="37">
-        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D164" s="71">
-        <v>0</v>
-      </c>
-      <c r="E164" s="37">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="D164" s="55">
+        <v>3.2100000000000002E-6</v>
+      </c>
+      <c r="E164" s="39">
+        <v>2.0000000000000001E-9</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D165" s="71">
-        <v>3.98</v>
+        <v>25</v>
       </c>
       <c r="E165" s="37">
-        <v>3.98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D166" s="71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D167" s="71">
+        <v>3.98</v>
+      </c>
+      <c r="E167" s="37">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D168" s="71">
+        <v>1</v>
+      </c>
+      <c r="E168" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B167" s="33" t="s">
+      <c r="B169" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="C167" s="33" t="s">
+      <c r="C169" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D167" s="55">
+      <c r="D169" s="55">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E167" s="38">
+      <c r="E169" s="38">
         <v>1.6666666666666666E-4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D168" s="50">
-        <v>1E-8</v>
-      </c>
-      <c r="E168" s="39">
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D169" s="63">
-        <v>20</v>
-      </c>
-      <c r="E169" s="37">
-        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D170" s="63">
-        <v>0</v>
-      </c>
-      <c r="E170" s="37">
-        <v>0</v>
+        <v>336</v>
+      </c>
+      <c r="D170" s="50">
+        <v>1E-8</v>
+      </c>
+      <c r="E170" s="39">
+        <v>1E-8</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D171" s="63">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E171" s="37">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D172" s="63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D173" s="50">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E173" s="38">
-        <v>8.3333333333333331E-5</v>
+        <v>102</v>
+      </c>
+      <c r="D173" s="63">
+        <v>2</v>
+      </c>
+      <c r="E173" s="37">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D174" s="63">
         <v>1</v>
@@ -5697,433 +5712,467 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="B175" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C175" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="D175" s="56">
-        <v>2.3533050791148895E-8</v>
-      </c>
-      <c r="E175" s="37">
-        <v>2.3533050791148899E-8</v>
+      <c r="A175" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D175" s="50">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="E175" s="38">
+        <v>8.3333333333333331E-5</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="B176" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="C176" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D176" s="72">
-        <v>20</v>
+      <c r="A176" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D176" s="63">
+        <v>1</v>
       </c>
       <c r="E176" s="37">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B177" s="29" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D177" s="72">
-        <v>-0.187</v>
+        <v>360</v>
+      </c>
+      <c r="D177" s="56">
+        <v>2.3533050791148895E-8</v>
       </c>
       <c r="E177" s="37">
-        <v>-0.187</v>
+        <v>2.3533050791148899E-8</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B178" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D178" s="72">
-        <v>2.48</v>
+        <v>20</v>
       </c>
       <c r="E178" s="37">
-        <v>2.48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D179" s="72">
-        <v>1</v>
+        <v>-0.187</v>
       </c>
       <c r="E179" s="37">
-        <v>1</v>
+        <v>-0.187</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C180" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D180" s="72">
+        <v>2.48</v>
+      </c>
+      <c r="E180" s="37">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B181" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C181" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D181" s="72">
+        <v>1</v>
+      </c>
+      <c r="E181" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="B180" s="29" t="s">
+      <c r="B182" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C182" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="D180" s="56">
+      <c r="D182" s="56">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="E180" s="37">
+      <c r="E182" s="37">
         <v>6.1060227588121015E-4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B181" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C181" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D181" s="53">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E181" s="37">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B182" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="C182" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D182" s="66">
-        <v>25</v>
-      </c>
-      <c r="E182" s="37">
-        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>346</v>
+        <v>202</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D183" s="66">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="D183" s="53">
+        <v>6.41E-9</v>
       </c>
       <c r="E183" s="37">
-        <v>0</v>
+        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D184" s="66">
-        <v>3.98</v>
+        <v>25</v>
       </c>
       <c r="E184" s="37">
-        <v>3.98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D185" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D186" s="66">
+        <v>3.98</v>
+      </c>
+      <c r="E186" s="37">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C187" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D187" s="66">
+        <v>1</v>
+      </c>
+      <c r="E187" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B188" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C188" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D186" s="53">
+      <c r="D188" s="53">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E186" s="38">
+      <c r="E188" s="38">
         <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D187" s="47">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E187" s="37">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D188" s="59">
-        <v>25</v>
-      </c>
-      <c r="E188" s="37">
-        <v>25</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D189" s="59">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="D189" s="47">
+        <v>6.41E-9</v>
       </c>
       <c r="E189" s="37">
-        <v>0</v>
+        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D190" s="59">
-        <v>3.98</v>
+        <v>25</v>
       </c>
       <c r="E190" s="37">
-        <v>3.98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D191" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D192" s="59">
+        <v>3.98</v>
+      </c>
+      <c r="E192" s="37">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D193" s="59">
+        <v>1</v>
+      </c>
+      <c r="E193" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B194" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C194" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D192" s="47">
+      <c r="D194" s="47">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E192" s="38">
+      <c r="E194" s="38">
         <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B193" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="C193" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D193" s="57">
-        <v>3.205E-9</v>
-      </c>
-      <c r="E193" s="37">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>353</v>
-      </c>
-      <c r="C194" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D194" s="73">
-        <v>25</v>
-      </c>
-      <c r="E194" s="37">
-        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D195" s="73">
-        <v>0</v>
+        <v>365</v>
+      </c>
+      <c r="D195" s="57">
+        <v>3.205E-9</v>
       </c>
       <c r="E195" s="37">
-        <v>0</v>
+        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D196" s="73">
-        <v>3.98</v>
+        <v>25</v>
       </c>
       <c r="E196" s="37">
-        <v>3.98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="D197" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E197" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B198" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="C198" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D198" s="73">
+        <v>3.98</v>
+      </c>
+      <c r="E198" s="37">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C199" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D199" s="73">
+        <v>1</v>
+      </c>
+      <c r="E199" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="B198" s="31" t="s">
+      <c r="B200" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="C198" s="31" t="s">
+      <c r="C200" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="D198" s="57">
+      <c r="D200" s="57">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E198" s="38">
+      <c r="E200" s="38">
         <v>8.3333333333333331E-5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="92" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="92" t="s">
         <v>369</v>
       </c>
-      <c r="B199" s="93" t="s">
+      <c r="B201" s="93" t="s">
         <v>490</v>
       </c>
-      <c r="C199" s="93" t="s">
+      <c r="C201" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="D199" s="94" t="s">
+      <c r="D201" s="94" t="s">
         <v>491</v>
       </c>
-      <c r="E199" s="94" t="s">
+      <c r="E201" s="94" t="s">
         <v>491</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="colorScale" priority="15">
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6134,8 +6183,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6146,8 +6195,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="E136">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6158,8 +6207,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="E124">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6170,8 +6219,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="E125">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6182,8 +6231,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117:E118">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="E119:E120">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6194,8 +6243,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="E136">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6206,8 +6255,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6218,8 +6267,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6230,8 +6279,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="E124">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6242,8 +6291,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="E125">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6254,8 +6303,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E134">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="E136">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6266,8 +6315,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E128">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E130">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6278,8 +6327,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E150">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6290,8 +6339,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E156">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
+++ b/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
@@ -2158,7 +2158,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2357,9 +2357,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2737,10 +2734,10 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2765,7 +2762,7 @@
         <v>386</v>
       </c>
       <c r="E1" s="42">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4194,8 +4191,8 @@
       <c r="D85" s="67">
         <v>140000</v>
       </c>
-      <c r="E85" s="37">
-        <v>140000</v>
+      <c r="E85" s="91">
+        <v>70000</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4279,8 +4276,8 @@
       <c r="D90" s="69">
         <v>1E-3</v>
       </c>
-      <c r="E90" s="91">
-        <v>0</v>
+      <c r="E90" s="37">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4313,8 +4310,8 @@
       <c r="D92" s="69">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="E92" s="96">
-        <v>0</v>
+      <c r="E92" s="38">
+        <v>3.7037037037037038E-3</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -6172,7 +6169,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6184,7 +6181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6196,7 +6193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6208,7 +6205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6220,7 +6217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6232,7 +6229,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119:E120">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6244,7 +6241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6256,7 +6253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6268,7 +6265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6280,7 +6277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6292,7 +6289,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6304,7 +6301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6316,7 +6313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6328,7 +6325,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6340,7 +6337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
+++ b/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="498">
   <si>
     <t>input_file</t>
   </si>
@@ -1509,6 +1509,12 @@
   </si>
   <si>
     <t>Option to artificially renew the soil solution and set the rhizodeposits concentrations to 0 at regular interval of time</t>
+  </si>
+  <si>
+    <t>initial_root_MTG_00719.pckl</t>
+  </si>
+  <si>
+    <t>sucrose_input_Swinnen_et_al_1994_starting_at_30_days.csv</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1676,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="55">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1973,12 +1979,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2345,18 +2345,18 @@
     <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="53" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2734,10 +2734,10 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2746,6 +2746,7 @@
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="43" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2762,7 +2763,7 @@
         <v>386</v>
       </c>
       <c r="E1" s="42">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2812,8 +2813,8 @@
       <c r="D4" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>88</v>
+      <c r="E4" s="93" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2830,7 +2831,7 @@
         <v>467</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2847,7 +2848,8 @@
         <v>60</v>
       </c>
       <c r="E6" s="89">
-        <v>180</v>
+        <f>4/24</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2863,7 +2865,7 @@
       <c r="D7" s="46">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="94">
         <v>4.1666666999999998E-2</v>
       </c>
     </row>
@@ -2880,9 +2882,9 @@
       <c r="D8" s="61">
         <v>5</v>
       </c>
-      <c r="E8" s="90">
-        <f>E7*3</f>
-        <v>0.125000001</v>
+      <c r="E8" s="94">
+        <f>E7</f>
+        <v>4.1666666999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2899,7 +2901,7 @@
         <v>86</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>86</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2915,8 +2917,9 @@
       <c r="D10" s="59">
         <v>1</v>
       </c>
-      <c r="E10" s="37">
-        <v>1</v>
+      <c r="E10" s="94">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3154,8 +3157,8 @@
       <c r="D24" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>88</v>
+      <c r="E24" s="95" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3171,8 +3174,8 @@
       <c r="D25" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>88</v>
+      <c r="E25" s="95" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3273,8 +3276,8 @@
       <c r="D31" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="95" t="s">
-        <v>88</v>
+      <c r="E31" s="93" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -4191,8 +4194,8 @@
       <c r="D85" s="67">
         <v>140000</v>
       </c>
-      <c r="E85" s="91">
-        <v>70000</v>
+      <c r="E85" s="37">
+        <v>140000</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4599,7 +4602,7 @@
       <c r="D109" s="76">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E109" s="74">
+      <c r="E109" s="76">
         <v>1.2847222222222224E-5</v>
       </c>
     </row>
@@ -4650,7 +4653,7 @@
       <c r="D112" s="76">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E112" s="74">
+      <c r="E112" s="76">
         <v>1.2847222222222224E-5</v>
       </c>
     </row>
@@ -6151,19 +6154,19 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="92" t="s">
+      <c r="A201" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="B201" s="93" t="s">
+      <c r="B201" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="C201" s="93" t="s">
+      <c r="C201" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="D201" s="94" t="s">
+      <c r="D201" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="E201" s="94" t="s">
+      <c r="E201" s="92" t="s">
         <v>491</v>
       </c>
     </row>

--- a/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
+++ b/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="499">
   <si>
     <t>input_file</t>
   </si>
@@ -362,9 +362,6 @@
     <t>Real number / meters per meter per second</t>
   </si>
   <si>
-    <t>Real number / mol of respired CO2 per mol of C used for structural mass</t>
-  </si>
-  <si>
     <t>Explanation</t>
   </si>
   <si>
@@ -566,9 +563,6 @@
     <t>Reference temperature for all root growth processes, which is supposed to correspond to the optimal temperature for maximizing potential growth in ArchiSimple</t>
   </si>
   <si>
-    <t>Growth yield as defined by Thornley and Cannell (2000), which corresponds to the fraction of C used for biomass production as opposed to the fraction of C used for growth respiration</t>
-  </si>
-  <si>
     <t>Affinity constant (in terms of Michaelis-Menten formalism) for root elongation, corresponding to the concentration for which the rate is equal to half of the maximal rate</t>
   </si>
   <si>
@@ -1358,163 +1352,172 @@
     <t>Real number / seconds-1 (equivalent-to-T_ref_growth)</t>
   </si>
   <si>
+    <t>PlantGL_window_width</t>
+  </si>
+  <si>
+    <t>PlantGL_window_height</t>
+  </si>
+  <si>
+    <t>Width of the window opened by PlantGL to display the graph (and eventually of the image that will be registered)</t>
+  </si>
+  <si>
+    <t>Height of the window opened by PlantGL to display the graph (and eventually of the image that will be registered)</t>
+  </si>
+  <si>
+    <t>reference_rate_of_hexose_consumption_by_growth</t>
+  </si>
+  <si>
+    <t>Reference rate of hexose consumption for growth (used to proportionnally increase the permeability of phloem according to the actual rate of hexose consumption)</t>
+  </si>
+  <si>
+    <t>Real number / mol of hexose per second</t>
+  </si>
+  <si>
+    <t>max_loading_rate</t>
+  </si>
+  <si>
+    <t>max_unloading_rate</t>
+  </si>
+  <si>
+    <t>Maximum loading rate of hexose through the surface of the phloem vessels</t>
+  </si>
+  <si>
+    <t>Real number / mol of hexose per square meter of phloem per second</t>
+  </si>
+  <si>
+    <t>Affinity constant (in terms of Michaelis-Menten formalism) for phloem unloading, corresponding to the concentration for which the rate is equal to half of the maximal rate</t>
+  </si>
+  <si>
+    <t>Real number / mol of sucrose per gram of root dry structural mass</t>
+  </si>
+  <si>
+    <t>phloem_unloading_T_ref</t>
+  </si>
+  <si>
+    <t>phloem_unloading_A</t>
+  </si>
+  <si>
+    <t>phloem_unloading_B</t>
+  </si>
+  <si>
+    <t>phloem_unloading_C</t>
+  </si>
+  <si>
+    <t>start_from_a_known_root_MTG</t>
+  </si>
+  <si>
+    <t>root_MTG_file</t>
+  </si>
+  <si>
+    <t>Option to start from a given root MTG to be loaded, or from scratch (True/False)</t>
+  </si>
+  <si>
+    <t>Name of the root MTG file to be loaded (if the option above has been declared True)</t>
+  </si>
+  <si>
+    <t>initial_root_MTG.pckl</t>
+  </si>
+  <si>
+    <t>unloading_by_diffusion</t>
+  </si>
+  <si>
+    <t>Option to select a diffusion process rather than a Michaelis-Menten to describe phloem unloading (True/False)</t>
+  </si>
+  <si>
+    <t>starting_time_in_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time in the input file at which the simulation will start </t>
+  </si>
+  <si>
+    <t>C_hexose_min_for_elongation</t>
+  </si>
+  <si>
+    <t>C_hexose_min_for_thickening</t>
+  </si>
+  <si>
+    <t>Treshold hexose concentration for elongation, below which no elongation occurs</t>
+  </si>
+  <si>
+    <t>Treshold hexose concentration for elongation, below which no thickening occurs</t>
+  </si>
+  <si>
+    <t>mycorrhizal_fungus</t>
+  </si>
+  <si>
+    <t>Option to allow interaction with mycorrhizal fungi (True/False)</t>
+  </si>
+  <si>
+    <t>Option to artiticially rehomogenize the concentrations of sugars along the roots at the end of the time step (True/False)</t>
+  </si>
+  <si>
+    <t>background_color</t>
+  </si>
+  <si>
+    <t>3D vector / [no units]</t>
+  </si>
+  <si>
+    <t>[94,76,64]</t>
+  </si>
+  <si>
+    <t>RGB vector describing the color of the background of the MTG (from 0 to 255 for each value, 0=black and 255=white)</t>
+  </si>
+  <si>
+    <t>Initial x coordinate of the camera</t>
+  </si>
+  <si>
+    <t>Initial y coordinate of the camera</t>
+  </si>
+  <si>
+    <t>x_camera</t>
+  </si>
+  <si>
+    <t>y_camera</t>
+  </si>
+  <si>
+    <t>Option to artiticially rehomogenize the concentrations of rhizodeposits along the roots at the end of the time step (True/False)</t>
+  </si>
+  <si>
+    <t>homogenizing_root_sugar_concentrations</t>
+  </si>
+  <si>
+    <t>homogenizing_soil_concentrations</t>
+  </si>
+  <si>
+    <t>Plant genotype (not used in the simulation)</t>
+  </si>
+  <si>
+    <t>WHEAT</t>
+  </si>
+  <si>
+    <t>renewal_of_soil_solution</t>
+  </si>
+  <si>
+    <t>interval_between_renewal_events</t>
+  </si>
+  <si>
+    <t>Interval of time between two soil solution's renewal events</t>
+  </si>
+  <si>
+    <t>Option to artificially renew the soil solution and set the rhizodeposits concentrations to 0 at regular interval of time</t>
+  </si>
+  <si>
     <t>C_hexose_root</t>
   </si>
   <si>
-    <t>PlantGL_window_width</t>
-  </si>
-  <si>
-    <t>PlantGL_window_height</t>
-  </si>
-  <si>
-    <t>Width of the window opened by PlantGL to display the graph (and eventually of the image that will be registered)</t>
-  </si>
-  <si>
-    <t>Height of the window opened by PlantGL to display the graph (and eventually of the image that will be registered)</t>
-  </si>
-  <si>
-    <t>reference_rate_of_hexose_consumption_by_growth</t>
-  </si>
-  <si>
-    <t>Reference rate of hexose consumption for growth (used to proportionnally increase the permeability of phloem according to the actual rate of hexose consumption)</t>
-  </si>
-  <si>
-    <t>Real number / mol of hexose per second</t>
-  </si>
-  <si>
-    <t>max_loading_rate</t>
-  </si>
-  <si>
-    <t>max_unloading_rate</t>
-  </si>
-  <si>
-    <t>Maximum loading rate of hexose through the surface of the phloem vessels</t>
-  </si>
-  <si>
-    <t>Real number / mol of hexose per square meter of phloem per second</t>
-  </si>
-  <si>
-    <t>Affinity constant (in terms of Michaelis-Menten formalism) for phloem unloading, corresponding to the concentration for which the rate is equal to half of the maximal rate</t>
-  </si>
-  <si>
-    <t>Real number / mol of sucrose per gram of root dry structural mass</t>
-  </si>
-  <si>
-    <t>phloem_unloading_T_ref</t>
-  </si>
-  <si>
-    <t>phloem_unloading_A</t>
-  </si>
-  <si>
-    <t>phloem_unloading_B</t>
-  </si>
-  <si>
-    <t>phloem_unloading_C</t>
-  </si>
-  <si>
-    <t>start_from_a_known_root_MTG</t>
-  </si>
-  <si>
-    <t>root_MTG_file</t>
-  </si>
-  <si>
-    <t>Option to start from a given root MTG to be loaded, or from scratch (True/False)</t>
-  </si>
-  <si>
-    <t>Name of the root MTG file to be loaded (if the option above has been declared True)</t>
-  </si>
-  <si>
-    <t>initial_root_MTG.pckl</t>
-  </si>
-  <si>
-    <t>unloading_by_diffusion</t>
-  </si>
-  <si>
-    <t>Option to select a diffusion process rather than a Michaelis-Menten to describe phloem unloading (True/False)</t>
-  </si>
-  <si>
-    <t>starting_time_in_days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time in the input file at which the simulation will start </t>
-  </si>
-  <si>
-    <t>C_hexose_min_for_elongation</t>
-  </si>
-  <si>
-    <t>C_hexose_min_for_thickening</t>
-  </si>
-  <si>
-    <t>Treshold hexose concentration for elongation, below which no elongation occurs</t>
-  </si>
-  <si>
-    <t>Treshold hexose concentration for elongation, below which no thickening occurs</t>
-  </si>
-  <si>
-    <t>mycorrhizal_fungus</t>
-  </si>
-  <si>
-    <t>Option to allow interaction with mycorrhizal fungi (True/False)</t>
-  </si>
-  <si>
-    <t>Option to artiticially rehomogenize the concentrations of sugars along the roots at the end of the time step (True/False)</t>
-  </si>
-  <si>
-    <t>background_color</t>
-  </si>
-  <si>
-    <t>3D vector / [no units]</t>
-  </si>
-  <si>
-    <t>[94,76,64]</t>
-  </si>
-  <si>
-    <t>RGB vector describing the color of the background of the MTG (from 0 to 255 for each value, 0=black and 255=white)</t>
-  </si>
-  <si>
-    <t>Initial x coordinate of the camera</t>
-  </si>
-  <si>
-    <t>Initial y coordinate of the camera</t>
-  </si>
-  <si>
-    <t>x_camera</t>
-  </si>
-  <si>
-    <t>y_camera</t>
-  </si>
-  <si>
-    <t>Option to artiticially rehomogenize the concentrations of rhizodeposits along the roots at the end of the time step (True/False)</t>
-  </si>
-  <si>
-    <t>homogenizing_root_sugar_concentrations</t>
-  </si>
-  <si>
-    <t>homogenizing_soil_concentrations</t>
-  </si>
-  <si>
-    <t>Plant genotype (not used in the simulation)</t>
-  </si>
-  <si>
-    <t>WHEAT</t>
-  </si>
-  <si>
-    <t>renewal_of_soil_solution</t>
-  </si>
-  <si>
-    <t>interval_between_renewal_events</t>
-  </si>
-  <si>
-    <t>Interval of time between two soil solution's renewal events</t>
-  </si>
-  <si>
-    <t>Option to artificially renew the soil solution and set the rhizodeposits concentrations to 0 at regular interval of time</t>
-  </si>
-  <si>
-    <t>initial_root_MTG_00719.pckl</t>
-  </si>
-  <si>
-    <t>sucrose_input_Swinnen_et_al_1994_starting_at_30_days.csv</t>
+    <t>rapeseed_inputs_PURE.csv</t>
+  </si>
+  <si>
+    <t>rapeseed_inputs_MIXED.csv</t>
+  </si>
+  <si>
+    <t>RAPESEED</t>
+  </si>
+  <si>
+    <t>Growth yield as defined by Thornley and Cannell (2000), which corresponds to the fraction of C consumed by growth that is actually used for biomass production (1-yield_growth corresponds to the fraction of C used for growth respiration)</t>
+  </si>
+  <si>
+    <t>Real number / mol of C used for structural mass per mol of C used for growth</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="56">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1960,7 +1963,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,13 +1987,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2173,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2196,18 +2211,6 @@
     <xf numFmtId="0" fontId="18" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2216,9 +2219,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2307,20 +2307,11 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2330,33 +2321,81 @@
     <xf numFmtId="165" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="53" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="53" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="54" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="55" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2691,37 +2730,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2731,13 +2770,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2745,3433 +2784,4261 @@
     <col min="1" max="1" width="32.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17" style="43" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17" style="39" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="42">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="38">
+        <v>183</v>
+      </c>
+      <c r="F1" s="38">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="57">
         <v>1</v>
       </c>
-      <c r="E3" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="E3" s="81">
+        <v>3</v>
+      </c>
+      <c r="F3" s="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
+      <c r="C5" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>467</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="81" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="56">
         <v>60</v>
       </c>
-      <c r="E6" s="89">
-        <f>4/24</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="86">
+        <v>280</v>
+      </c>
+      <c r="F6" s="86">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="82">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="82">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="56">
         <v>5</v>
       </c>
-      <c r="E8" s="94">
-        <f>E7</f>
-        <v>4.1666666999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="87">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="54">
         <v>1</v>
       </c>
-      <c r="E10" s="94">
-        <f>1/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="81">
+        <v>1</v>
+      </c>
+      <c r="F10" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="54">
         <v>0</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="47">
+      <c r="D13" s="42">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="83">
         <v>5.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="83">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="54">
         <v>10</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="81">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>492</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>495</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="59">
+        <v>302</v>
+      </c>
+      <c r="D18" s="54">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="81">
         <v>86400</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="81">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="55">
         <v>3</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="90">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="84" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="44" t="s">
+      <c r="E22" s="84" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="55">
         <v>0.33</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="81">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="81">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>493</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="44">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="83">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="83">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="44">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="83">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="83">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="37" t="s">
+      <c r="E35" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="81" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="81" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="81" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="58">
+      <c r="D39" s="53">
         <v>120</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="81">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="81">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="58">
+      <c r="D40" s="53">
         <v>0</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="58">
+      <c r="D41" s="53">
         <v>0</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="58">
+      <c r="D42" s="53">
         <v>-0.1</v>
       </c>
-      <c r="E42" s="37">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="86">
+        <v>0.12</v>
+      </c>
+      <c r="F42" s="86">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="58">
+      <c r="D43" s="53">
         <v>-0.2</v>
       </c>
-      <c r="E43" s="37">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="86">
+        <v>-0.5</v>
+      </c>
+      <c r="F43" s="86">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="58">
+      <c r="D44" s="53">
         <v>-0.2</v>
       </c>
-      <c r="E44" s="37">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="86">
+        <v>-0.5</v>
+      </c>
+      <c r="F44" s="86">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="53">
         <v>-0.2</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="86">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="86">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="58">
+      <c r="D46" s="53">
         <v>0</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="53">
         <v>1200</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="81">
         <v>1200</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="81">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="58">
+      <c r="D48" s="53">
         <v>1200</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="81">
         <v>1200</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="81">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>482</v>
-      </c>
       <c r="C49" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>478</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="F49" s="88" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="37" t="s">
+      <c r="E50" s="81" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="63">
+      <c r="D52" s="58">
         <v>0</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="58">
         <v>0.5</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="81">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="63">
+      <c r="D54" s="58">
         <v>0.05</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="81">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="64">
+      <c r="D55" s="59">
         <v>1E-3</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="83">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="83">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D56" s="59">
         <v>0</v>
       </c>
-      <c r="E56" s="37">
+      <c r="E56" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="51">
+        <v>202</v>
+      </c>
+      <c r="D57" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E57" s="37">
+      <c r="E57" s="81">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="81">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D58" s="51">
+        <v>202</v>
+      </c>
+      <c r="D58" s="46">
         <v>1E-4</v>
       </c>
-      <c r="E58" s="37">
+      <c r="E58" s="81">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="81">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="67">
+      <c r="D59" s="62">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E59" s="37">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="89">
+        <v>5.8377186629974696E-4</v>
+      </c>
+      <c r="F59" s="89">
+        <v>5.8377186629974696E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="67">
+      <c r="D60" s="62">
         <v>1.22E-4</v>
       </c>
-      <c r="E60" s="37">
-        <v>1.22E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="89">
+        <v>8.2000000000000001E-5</v>
+      </c>
+      <c r="F60" s="89">
+        <v>8.2000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="67">
+      <c r="D61" s="62">
         <v>1</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="67">
+      <c r="D62" s="62">
         <v>0.95</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="81">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="81">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>90</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="67">
+      <c r="D64" s="62">
         <v>5</v>
       </c>
-      <c r="E64" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="86">
+        <v>1</v>
+      </c>
+      <c r="F64" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="67" t="s">
+      <c r="D65" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="67">
+      <c r="D66" s="62">
         <v>50</v>
       </c>
-      <c r="E66" s="37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="86">
+        <v>0</v>
+      </c>
+      <c r="F66" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="47">
         <v>1453890.8941884842</v>
       </c>
-      <c r="E67" s="38">
-        <v>1453890.8941884842</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="86">
+        <v>0</v>
+      </c>
+      <c r="F67" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="67">
+      <c r="D68" s="62">
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="E68" s="38">
-        <v>1.3888888888888888E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="86">
+        <v>0</v>
+      </c>
+      <c r="F68" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="67">
+      <c r="D69" s="62">
         <v>4.5763888888888888E-4</v>
       </c>
-      <c r="E69" s="38">
-        <v>6.5011574074074071E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="87">
+        <v>9.0277777777777774E-4</v>
+      </c>
+      <c r="F69" s="87">
+        <v>9.0277777777777774E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="67">
+      <c r="D70" s="62">
         <v>3.63E-3</v>
       </c>
-      <c r="E70" s="37">
-        <v>4.7400000000000003E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="89">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F70" s="89">
+        <v>2.7499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="47">
         <v>491356.80000000005</v>
       </c>
-      <c r="E71" s="38">
-        <v>282528</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="100">
+        <v>181440</v>
+      </c>
+      <c r="F71" s="100">
+        <v>181440</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="67">
+      <c r="D72" s="62">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E72" s="37">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="90">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="F72" s="90">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="67">
+      <c r="D73" s="62">
         <v>0.25862068965517243</v>
       </c>
-      <c r="E73" s="77">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="91">
+        <v>0.33</v>
+      </c>
+      <c r="F73" s="91">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="67">
+      <c r="D74" s="62">
         <v>0</v>
       </c>
-      <c r="E74" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C75" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="D75" s="63">
+        <v>745476480000</v>
+      </c>
+      <c r="E75" s="87">
+        <v>5356800000000</v>
+      </c>
+      <c r="F75" s="87">
+        <v>5356800000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="63">
+        <v>100</v>
+      </c>
+      <c r="E76" s="90">
+        <v>5</v>
+      </c>
+      <c r="F76" s="90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>427</v>
-      </c>
-      <c r="D75" s="68">
-        <v>745476480000</v>
-      </c>
-      <c r="E75" s="38">
-        <v>745476480000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="D76" s="68">
-        <v>100</v>
-      </c>
-      <c r="E76" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="E77" s="92" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="68">
+      <c r="D78" s="63">
         <v>29203.200000000001</v>
       </c>
-      <c r="E78" s="37">
+      <c r="E78" s="92">
         <v>21600</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="92">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="68">
+      <c r="D79" s="63">
         <v>0.5</v>
       </c>
-      <c r="E79" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="90">
+        <v>0.75</v>
+      </c>
+      <c r="F79" s="90">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="68">
+      <c r="D80" s="63">
         <v>387936</v>
       </c>
-      <c r="E80" s="37">
-        <v>60479.999999999993</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="92">
+        <v>259200</v>
+      </c>
+      <c r="F80" s="92">
+        <v>259200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="68">
+      <c r="D81" s="63">
         <v>0.85</v>
       </c>
-      <c r="E81" s="37">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="F81" s="90">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B82" s="35" t="s">
         <v>410</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>412</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="68">
+      <c r="D82" s="63">
         <v>518400</v>
       </c>
-      <c r="E82" s="37">
-        <v>518400</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="90">
+        <v>1728000</v>
+      </c>
+      <c r="F82" s="90">
+        <v>1728000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="68">
+      <c r="D83" s="63">
         <v>5184000</v>
       </c>
-      <c r="E83" s="37">
-        <v>5184000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="90">
+        <v>8640000</v>
+      </c>
+      <c r="F83" s="90">
+        <v>8640000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="67">
+      <c r="D84" s="62">
         <v>259200</v>
       </c>
-      <c r="E84" s="39">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="89">
+        <v>100000</v>
+      </c>
+      <c r="F84" s="89">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D85" s="67">
+        <v>203</v>
+      </c>
+      <c r="D85" s="62">
         <v>140000</v>
       </c>
-      <c r="E85" s="37">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="101">
+        <v>150000</v>
+      </c>
+      <c r="F85" s="101">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D86" s="67">
+        <v>204</v>
+      </c>
+      <c r="D86" s="62">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="82">
         <v>3.6636136999999999E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="82">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="67">
+      <c r="D87" s="62">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="E87" s="37">
-        <v>4.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="86">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F87" s="86">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="67">
+      <c r="D88" s="62">
         <v>0.05</v>
       </c>
-      <c r="E88" s="37">
+      <c r="E88" s="81">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="69">
+      <c r="D89" s="64">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="E89" s="37">
-        <v>6.0000000000000002E-6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="102">
+        <v>1.077482269503545E-5</v>
+      </c>
+      <c r="F89" s="102">
+        <v>1.077482269503545E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="69">
+      <c r="D90" s="64">
         <v>1E-3</v>
       </c>
-      <c r="E90" s="37">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="102">
+        <v>9.5212765957446805E-4</v>
+      </c>
+      <c r="F90" s="102">
+        <v>9.5212765957446805E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="D91" s="64">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="E91" s="102">
+        <v>54903164.30816105</v>
+      </c>
+      <c r="F91" s="102">
+        <v>54903164.30816105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="64">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="E92" s="82">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="F92" s="82">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="C91" s="21" t="s">
+      <c r="B93" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D91" s="69">
-        <v>374999999.99999994</v>
-      </c>
-      <c r="E91" s="37">
-        <v>374999999.99999994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="D92" s="69">
-        <v>3.7037037037037038E-3</v>
-      </c>
-      <c r="E92" s="38">
-        <v>3.7037037037037038E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="D93" s="69">
+      <c r="D93" s="64">
         <v>165600</v>
       </c>
-      <c r="E93" s="37">
+      <c r="E93" s="81">
         <v>165600</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="81">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="58">
+      <c r="D94" s="53">
         <v>20</v>
       </c>
-      <c r="E94" s="37">
+      <c r="E94" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D95" s="58">
+      <c r="D95" s="53">
         <v>1</v>
       </c>
-      <c r="E95" s="37">
+      <c r="E95" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="58">
+      <c r="D96" s="53">
         <v>21</v>
       </c>
-      <c r="E96" s="37">
+      <c r="E96" s="81">
         <v>21</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" s="66">
+        <v>189</v>
+      </c>
+      <c r="D97" s="61">
         <v>0.64</v>
       </c>
-      <c r="E97" s="37">
+      <c r="E97" s="81">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="81">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="61">
+        <v>8</v>
+      </c>
+      <c r="E98" s="81">
+        <v>8</v>
+      </c>
+      <c r="F98" s="81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" s="61">
+        <v>10</v>
+      </c>
+      <c r="E99" s="81">
+        <v>10</v>
+      </c>
+      <c r="F99" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B100" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D98" s="66">
+      <c r="C100" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" s="61">
         <v>8</v>
       </c>
-      <c r="E98" s="37">
+      <c r="E100" s="81">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D99" s="66">
-        <v>10</v>
-      </c>
-      <c r="E99" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D100" s="66">
+      <c r="F100" s="81">
         <v>8</v>
       </c>
-      <c r="E100" s="37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="66">
+      <c r="D101" s="61">
         <v>1</v>
       </c>
-      <c r="E101" s="37">
+      <c r="E101" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="F102" s="81">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B103" s="25" t="s">
         <v>394</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="D102" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="E102" s="37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>396</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="66">
+      <c r="D103" s="61">
         <v>0</v>
       </c>
-      <c r="E103" s="37">
+      <c r="E103" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="66">
+      <c r="D104" s="61">
         <v>1589759.9999999998</v>
       </c>
-      <c r="E104" s="74">
+      <c r="E104" s="85">
         <v>1589759.9999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="85">
+        <v>1589759.9999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C105" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="66">
+      <c r="D105" s="61">
         <v>6171428.5714285718</v>
       </c>
-      <c r="E105" s="74">
-        <v>6171428.5714285718</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="93">
+        <v>455327.99999999994</v>
+      </c>
+      <c r="F105" s="93">
+        <v>455327.99999999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C106" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="66">
+      <c r="D106" s="61">
         <v>6171428.5714285718</v>
       </c>
-      <c r="E106" s="74">
-        <v>6171428.5714285718</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="103">
+        <v>455327.99999999994</v>
+      </c>
+      <c r="F106" s="103">
+        <v>455327.99999999994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D107" s="70">
+        <v>100</v>
+      </c>
+      <c r="E107" s="94">
+        <v>100</v>
+      </c>
+      <c r="F107" s="94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B107" s="25" t="s">
+      <c r="B108" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="C108" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D108" s="70">
+        <v>280800</v>
+      </c>
+      <c r="E108" s="85">
+        <v>280800</v>
+      </c>
+      <c r="F108" s="85">
+        <v>280800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C109" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D107" s="76">
+      <c r="D109" s="70">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="E109" s="95">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="F109" s="95">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="D110" s="70">
         <v>100</v>
       </c>
-      <c r="E107" s="74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D108" s="76">
-        <v>280800</v>
-      </c>
-      <c r="E108" s="74">
-        <v>280800</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="D109" s="76">
+      <c r="E110" s="94">
+        <v>90</v>
+      </c>
+      <c r="F110" s="94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D111" s="70">
+        <v>459648</v>
+      </c>
+      <c r="E111" s="85">
+        <v>459648</v>
+      </c>
+      <c r="F111" s="85">
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D112" s="70">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E109" s="76">
+      <c r="E112" s="95">
         <v>1.2847222222222224E-5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="D110" s="76">
-        <v>100</v>
-      </c>
-      <c r="E110" s="74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>443</v>
-      </c>
-      <c r="D111" s="76">
-        <v>459648</v>
-      </c>
-      <c r="E111" s="74">
-        <v>459648</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="D112" s="76">
+      <c r="F112" s="95">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E112" s="76">
-        <v>1.2847222222222224E-5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C113" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="76">
+      <c r="D113" s="70">
         <v>21600</v>
       </c>
-      <c r="E113" s="74">
+      <c r="E113" s="85">
         <v>21600</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="85">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="76">
+      <c r="D114" s="70">
         <v>172800</v>
       </c>
-      <c r="E114" s="74">
+      <c r="E114" s="85">
         <v>43200</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="85">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>181</v>
+        <v>497</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="58">
+        <v>498</v>
+      </c>
+      <c r="D115" s="53">
         <v>0.8</v>
       </c>
-      <c r="E115" s="37">
+      <c r="E115" s="81">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="81">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" s="49">
+        <v>205</v>
+      </c>
+      <c r="D116" s="44">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E116" s="82">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="82">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="49">
+      <c r="D117" s="44">
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="E117" s="40">
-        <v>5.7899999999999998E-7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="89">
+        <v>2.8935185185185188E-6</v>
+      </c>
+      <c r="F117" s="89">
+        <v>2.8935185185185188E-6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D118" s="49">
+        <v>205</v>
+      </c>
+      <c r="D118" s="44">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E118" s="38">
+      <c r="E118" s="82">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="82">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" s="44">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E119" s="82">
+        <v>0</v>
+      </c>
+      <c r="F119" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B120" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D119" s="49">
+      <c r="C120" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="44">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E119" s="38">
+      <c r="E120" s="82">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D120" s="49">
+      <c r="F120" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="B121" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D121" s="73">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E120" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="79" t="s">
+      <c r="E121" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="F121" s="96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="B121" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="D121" s="81">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E121" s="86" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="B122" s="80" t="s">
-        <v>457</v>
-      </c>
-      <c r="C122" s="80" t="s">
-        <v>458</v>
-      </c>
-      <c r="D122" s="82">
+      <c r="C122" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="D122" s="74">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E122" s="86" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="79" t="s">
-        <v>468</v>
-      </c>
-      <c r="B123" s="80" t="s">
-        <v>469</v>
-      </c>
-      <c r="C123" s="80" t="s">
+      <c r="E122" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="F122" s="96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="71" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" s="72" t="s">
+        <v>466</v>
+      </c>
+      <c r="C123" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="D123" s="82" t="s">
+      <c r="D123" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E123" s="86" t="s">
+      <c r="E123" s="96" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="D124" s="65">
+        <v>206</v>
+      </c>
+      <c r="D124" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E124" s="78">
+      <c r="E124" s="97">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="97">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D125" s="75">
+        <v>449</v>
+      </c>
+      <c r="D125" s="69">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="E125" s="78">
+      <c r="E125" s="97">
         <v>4.9999999999999999E-13</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="97">
+        <v>4.9999999999999999E-13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C126" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="65">
+      <c r="D126" s="60">
         <v>10</v>
       </c>
-      <c r="E126" s="37">
+      <c r="E126" s="81">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D127" s="65">
+        <v>307</v>
+      </c>
+      <c r="D127" s="60">
         <v>-0.04</v>
       </c>
-      <c r="E127" s="37">
+      <c r="E127" s="81">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="81">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C128" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="65">
+      <c r="D128" s="60">
         <v>2.9</v>
       </c>
-      <c r="E128" s="37">
+      <c r="E128" s="81">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="81">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D129" s="65">
+      <c r="D129" s="60">
         <v>1</v>
       </c>
-      <c r="E129" s="37">
+      <c r="E129" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="79" t="s">
+      <c r="F129" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>452</v>
+      </c>
+      <c r="C130" s="72" t="s">
         <v>453</v>
       </c>
-      <c r="B130" s="80" t="s">
-        <v>455</v>
-      </c>
-      <c r="C130" s="80" t="s">
-        <v>456</v>
-      </c>
-      <c r="D130" s="81">
+      <c r="D130" s="73">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E130" s="39">
+      <c r="E130" s="83">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="83">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D131" s="65">
+      <c r="D131" s="60">
         <v>10</v>
       </c>
-      <c r="E131" s="37">
+      <c r="E131" s="81">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="D132" s="65">
+        <v>307</v>
+      </c>
+      <c r="D132" s="60">
         <v>-0.04</v>
       </c>
-      <c r="E132" s="37">
+      <c r="E132" s="81">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="81">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C133" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D133" s="65">
+      <c r="D133" s="60">
         <v>2.9</v>
       </c>
-      <c r="E133" s="37">
+      <c r="E133" s="81">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="81">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C134" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D134" s="65">
+      <c r="D134" s="60">
         <v>1</v>
       </c>
-      <c r="E134" s="37">
+      <c r="E134" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C135" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D135" s="65">
+      <c r="D135" s="60">
         <v>0</v>
       </c>
-      <c r="E135" s="37">
+      <c r="E135" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D136" s="54">
+        <v>205</v>
+      </c>
+      <c r="D136" s="49">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E136" s="39">
+      <c r="E136" s="83">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="83">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" s="53">
+        <v>205</v>
+      </c>
+      <c r="D137" s="48">
         <v>0</v>
       </c>
-      <c r="E137" s="37">
+      <c r="E137" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D138" s="53">
+        <v>205</v>
+      </c>
+      <c r="D138" s="48">
         <v>2E-3</v>
       </c>
-      <c r="E138" s="37">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="90">
+        <v>0.02</v>
+      </c>
+      <c r="F138" s="90">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D139" s="53">
+        <v>205</v>
+      </c>
+      <c r="D139" s="48">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E139" s="39">
+      <c r="E139" s="83">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="83">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D140" s="53">
+        <v>207</v>
+      </c>
+      <c r="D140" s="48">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="E140" s="39">
+      <c r="E140" s="83">
         <v>3.7699999999999999E-10</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="83">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C141" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D141" s="53">
+      <c r="D141" s="48">
         <v>20</v>
       </c>
-      <c r="E141" s="37">
+      <c r="E141" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D142" s="53">
+        <v>307</v>
+      </c>
+      <c r="D142" s="48">
         <v>-0.06</v>
       </c>
-      <c r="E142" s="37">
+      <c r="E142" s="81">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="81">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C143" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D143" s="53">
+      <c r="D143" s="48">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E143" s="37">
+      <c r="E143" s="81">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="81">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C144" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D144" s="53">
+      <c r="D144" s="48">
         <v>1</v>
       </c>
-      <c r="E144" s="37">
+      <c r="E144" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D145" s="53">
+        <v>205</v>
+      </c>
+      <c r="D145" s="48">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E145" s="39">
+      <c r="E145" s="83">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="83">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="D146" s="49">
+        <v>207</v>
+      </c>
+      <c r="D146" s="44">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="E146" s="39">
+      <c r="E146" s="83">
         <v>5.8333333333333335E-9</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="83">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D147" s="58">
+      <c r="D147" s="53">
         <v>20</v>
       </c>
-      <c r="E147" s="37">
+      <c r="E147" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="D148" s="58">
+        <v>307</v>
+      </c>
+      <c r="D148" s="53">
         <v>-0.06</v>
       </c>
-      <c r="E148" s="37">
+      <c r="E148" s="81">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="81">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D149" s="58">
+      <c r="D149" s="53">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E149" s="37">
+      <c r="E149" s="81">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="81">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D150" s="58">
+      <c r="D150" s="53">
         <v>1</v>
       </c>
-      <c r="E150" s="37">
+      <c r="E150" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D151" s="58">
+        <v>205</v>
+      </c>
+      <c r="D151" s="53">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E151" s="39">
+      <c r="E151" s="83">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="83">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D152" s="48">
+        <v>207</v>
+      </c>
+      <c r="D152" s="43">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="E152" s="78">
+      <c r="E152" s="97">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="97">
+        <v>4.0000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D153" s="60">
+      <c r="D153" s="55">
         <v>20</v>
       </c>
-      <c r="E153" s="37">
+      <c r="E153" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B154" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C154" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D154" s="60">
+      <c r="D154" s="55">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="E154" s="37">
+      <c r="E154" s="81">
         <v>-4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="81">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="60">
+      <c r="D155" s="55">
         <v>1.55</v>
       </c>
-      <c r="E155" s="37">
+      <c r="E155" s="81">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="81">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D156" s="60">
+      <c r="D156" s="55">
         <v>1</v>
       </c>
-      <c r="E156" s="37">
+      <c r="E156" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D157" s="60">
+        <v>205</v>
+      </c>
+      <c r="D157" s="55">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E157" s="37">
+      <c r="E157" s="81">
         <v>2.7799999999999998E-4</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="81">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D158" s="70">
+        <v>208</v>
+      </c>
+      <c r="D158" s="65">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="E158" s="88">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="98">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F158" s="98">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C159" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D159" s="70">
+      <c r="D159" s="65">
         <v>20</v>
       </c>
-      <c r="E159" s="37">
+      <c r="E159" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="D160" s="70">
+        <v>307</v>
+      </c>
+      <c r="D160" s="65">
         <v>0</v>
       </c>
-      <c r="E160" s="37">
+      <c r="E160" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C161" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="70">
+      <c r="D161" s="65">
         <v>1</v>
       </c>
-      <c r="E161" s="37">
+      <c r="E161" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C162" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D162" s="70">
+      <c r="D162" s="65">
         <v>0</v>
       </c>
-      <c r="E162" s="37">
+      <c r="E162" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C163" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D163" s="70">
+      <c r="D163" s="65">
         <v>0.4</v>
       </c>
-      <c r="E163" s="37">
+      <c r="E163" s="81">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D164" s="55">
+        <v>207</v>
+      </c>
+      <c r="D164" s="50">
         <v>3.2100000000000002E-6</v>
       </c>
-      <c r="E164" s="39">
+      <c r="E164" s="83">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="83">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D165" s="71">
+      <c r="D165" s="66">
         <v>25</v>
       </c>
-      <c r="E165" s="37">
+      <c r="E165" s="81">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D166" s="71">
+        <v>307</v>
+      </c>
+      <c r="D166" s="66">
         <v>0</v>
       </c>
-      <c r="E166" s="37">
+      <c r="E166" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D167" s="71">
+      <c r="D167" s="66">
         <v>3.98</v>
       </c>
-      <c r="E167" s="37">
+      <c r="E167" s="81">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="81">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D168" s="71">
+      <c r="D168" s="66">
         <v>1</v>
       </c>
-      <c r="E168" s="37">
+      <c r="E168" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>81</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D169" s="55">
+        <v>205</v>
+      </c>
+      <c r="D169" s="50">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E169" s="38">
+      <c r="E169" s="82">
         <v>1.6666666666666666E-4</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="82">
+        <v>1.6666666666666666E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B170" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D170" s="45">
+        <v>1E-8</v>
+      </c>
+      <c r="E170" s="83">
+        <v>1E-8</v>
+      </c>
+      <c r="F170" s="83">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B171" s="13" t="s">
         <v>335</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D170" s="50">
-        <v>1E-8</v>
-      </c>
-      <c r="E170" s="39">
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D171" s="63">
+      <c r="D171" s="58">
         <v>20</v>
       </c>
-      <c r="E171" s="37">
+      <c r="E171" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D172" s="63">
+        <v>307</v>
+      </c>
+      <c r="D172" s="58">
         <v>0</v>
       </c>
-      <c r="E172" s="37">
+      <c r="E172" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D173" s="63">
+      <c r="D173" s="58">
         <v>2</v>
       </c>
-      <c r="E173" s="37">
+      <c r="E173" s="81">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D174" s="63">
+      <c r="D174" s="58">
         <v>1</v>
       </c>
-      <c r="E174" s="37">
+      <c r="E174" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D175" s="50">
+        <v>205</v>
+      </c>
+      <c r="D175" s="45">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E175" s="38">
+      <c r="E175" s="82">
         <v>8.3333333333333331E-5</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D176" s="63">
+      <c r="D176" s="58">
         <v>1</v>
       </c>
-      <c r="E176" s="37">
+      <c r="E176" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B177" s="29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="D177" s="56">
+        <v>358</v>
+      </c>
+      <c r="D177" s="51">
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="E177" s="37">
+      <c r="E177" s="81">
         <v>2.3533050791148899E-8</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="81">
+        <v>2.3533050791148899E-8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B178" s="29" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D178" s="72">
+      <c r="D178" s="67">
         <v>20</v>
       </c>
-      <c r="E178" s="37">
+      <c r="E178" s="81">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D179" s="72">
+        <v>307</v>
+      </c>
+      <c r="D179" s="67">
         <v>-0.187</v>
       </c>
-      <c r="E179" s="37">
+      <c r="E179" s="81">
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="81">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B180" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C180" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D180" s="72">
+      <c r="D180" s="67">
         <v>2.48</v>
       </c>
-      <c r="E180" s="37">
+      <c r="E180" s="81">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="81">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C181" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D181" s="72">
+      <c r="D181" s="67">
         <v>1</v>
       </c>
-      <c r="E181" s="37">
+      <c r="E181" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B182" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C182" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="51">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="E182" s="81">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="F182" s="81">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D183" s="48">
+        <v>6.41E-9</v>
+      </c>
+      <c r="E183" s="81">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="F183" s="81">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B182" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C182" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="D182" s="56">
-        <v>6.1060227588121015E-4</v>
-      </c>
-      <c r="E182" s="37">
-        <v>6.1060227588121015E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="B183" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C183" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D183" s="53">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E183" s="37">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="24" t="s">
-        <v>275</v>
-      </c>
       <c r="B184" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D184" s="66">
+      <c r="D184" s="61">
         <v>25</v>
       </c>
-      <c r="E184" s="37">
+      <c r="E184" s="81">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="D185" s="66">
+        <v>307</v>
+      </c>
+      <c r="D185" s="61">
         <v>0</v>
       </c>
-      <c r="E185" s="37">
+      <c r="E185" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D186" s="66">
+      <c r="D186" s="61">
         <v>3.98</v>
       </c>
-      <c r="E186" s="37">
+      <c r="E186" s="81">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="81">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C187" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D187" s="66">
+      <c r="D187" s="61">
         <v>1</v>
       </c>
-      <c r="E187" s="37">
+      <c r="E187" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C188" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" s="48">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="E188" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="F188" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D189" s="42">
+        <v>6.41E-9</v>
+      </c>
+      <c r="E189" s="81">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="F189" s="81">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B188" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C188" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D188" s="53">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E188" s="38">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D189" s="47">
-        <v>6.41E-9</v>
-      </c>
-      <c r="E189" s="37">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
-        <v>281</v>
-      </c>
       <c r="B190" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D190" s="59">
+      <c r="D190" s="54">
         <v>25</v>
       </c>
-      <c r="E190" s="37">
+      <c r="E190" s="81">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D191" s="59">
+        <v>307</v>
+      </c>
+      <c r="D191" s="54">
         <v>0</v>
       </c>
-      <c r="E191" s="37">
+      <c r="E191" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D192" s="59">
+      <c r="D192" s="54">
         <v>3.98</v>
       </c>
-      <c r="E192" s="37">
+      <c r="E192" s="81">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="81">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D193" s="59">
+      <c r="D193" s="54">
         <v>1</v>
       </c>
-      <c r="E193" s="37">
+      <c r="E193" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D194" s="42">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="E194" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="F194" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D195" s="52">
+        <v>3.205E-9</v>
+      </c>
+      <c r="E195" s="81">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F195" s="81">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D194" s="47">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E194" s="38">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B195" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="C195" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="D195" s="57">
-        <v>3.205E-9</v>
-      </c>
-      <c r="E195" s="37">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="30" t="s">
-        <v>287</v>
-      </c>
       <c r="B196" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C196" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D196" s="73">
+      <c r="D196" s="68">
         <v>25</v>
       </c>
-      <c r="E196" s="37">
+      <c r="E196" s="81">
         <v>25</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D197" s="73">
+        <v>307</v>
+      </c>
+      <c r="D197" s="68">
         <v>0</v>
       </c>
-      <c r="E197" s="37">
+      <c r="E197" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C198" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D198" s="73">
+      <c r="D198" s="68">
         <v>3.98</v>
       </c>
-      <c r="E198" s="37">
+      <c r="E198" s="81">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="81">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C199" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D199" s="73">
+      <c r="D199" s="68">
         <v>1</v>
       </c>
-      <c r="E199" s="37">
+      <c r="E199" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C200" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D200" s="52">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="E200" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="F200" s="82">
+        <v>8.3333333333333331E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="D200" s="57">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="E200" s="38">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="90" t="s">
-        <v>369</v>
-      </c>
-      <c r="B201" s="91" t="s">
-        <v>490</v>
-      </c>
-      <c r="C201" s="91" t="s">
+      <c r="B201" s="79" t="s">
+        <v>487</v>
+      </c>
+      <c r="C201" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="D201" s="92" t="s">
-        <v>491</v>
-      </c>
-      <c r="E201" s="92" t="s">
-        <v>491</v>
+      <c r="D201" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="E201" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="F201" s="99" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119:E120">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E125">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E152">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F152">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F158">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F136">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6183,7 +7050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
+  <conditionalFormatting sqref="F124">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6195,7 +7062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
+  <conditionalFormatting sqref="F125">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6207,7 +7074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
+  <conditionalFormatting sqref="F119:F120">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6219,7 +7086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+  <conditionalFormatting sqref="F136">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6231,7 +7098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E120">
+  <conditionalFormatting sqref="F152">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6243,7 +7110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
+  <conditionalFormatting sqref="F158">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6255,7 +7122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="F124">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6267,7 +7134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
+  <conditionalFormatting sqref="F125">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6279,7 +7146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
+  <conditionalFormatting sqref="F136">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6291,7 +7158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
+  <conditionalFormatting sqref="F130">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6303,7 +7170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
+  <conditionalFormatting sqref="F152">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6315,7 +7182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
+  <conditionalFormatting sqref="F158">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6327,7 +7194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
+  <conditionalFormatting sqref="F152">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6339,7 +7206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
+  <conditionalFormatting sqref="F158">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -6375,18 +7242,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>293</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6422,7 +7289,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -6554,7 +7421,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -6590,7 +7457,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -6674,7 +7541,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -6686,7 +7553,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -6698,7 +7565,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -6710,7 +7577,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -6722,7 +7589,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -6734,7 +7601,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -6746,7 +7613,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -6758,7 +7625,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -6770,7 +7637,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -6782,7 +7649,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -6818,7 +7685,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -6830,7 +7697,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -6842,7 +7709,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -6854,7 +7721,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -6878,10 +7745,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6890,7 +7757,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -6902,7 +7769,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
@@ -6914,7 +7781,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -6950,7 +7817,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
@@ -6962,10 +7829,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6986,7 +7853,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
@@ -6998,7 +7865,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -7010,7 +7877,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -7022,7 +7889,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -7037,7 +7904,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7046,7 +7913,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
@@ -7058,7 +7925,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -7070,7 +7937,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
@@ -7082,7 +7949,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B60" t="s">
         <v>54</v>
@@ -7109,7 +7976,7 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7121,7 +7988,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7133,7 +8000,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7145,7 +8012,7 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7157,7 +8024,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7178,7 +8045,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -7190,7 +8057,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -7202,7 +8069,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -7214,7 +8081,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
@@ -7229,7 +8096,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C72" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7250,7 +8117,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
         <v>61</v>
@@ -7262,7 +8129,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B75" t="s">
         <v>62</v>
@@ -7274,7 +8141,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
         <v>63</v>
@@ -7286,7 +8153,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
@@ -7310,7 +8177,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B79" t="s">
         <v>66</v>
@@ -7325,7 +8192,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7334,10 +8201,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7346,10 +8213,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7358,10 +8225,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7370,7 +8237,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
         <v>67</v>
@@ -7397,7 +8264,7 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7406,10 +8273,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7418,10 +8285,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C88" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7430,10 +8297,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C89" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7442,7 +8309,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -7466,7 +8333,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
@@ -7478,7 +8345,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s">
         <v>57</v>
@@ -7490,7 +8357,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B94" t="s">
         <v>58</v>
@@ -7502,7 +8369,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -7514,10 +8381,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7526,10 +8393,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C97" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7538,10 +8405,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C98" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7550,10 +8417,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C99" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7562,7 +8429,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B100" t="s">
         <v>72</v>
@@ -7574,7 +8441,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
         <v>73</v>
@@ -7586,10 +8453,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C102" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7598,10 +8465,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B103" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C103" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7610,10 +8477,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C104" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7622,10 +8489,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C105" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7634,7 +8501,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B106" t="s">
         <v>74</v>
@@ -7646,7 +8513,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B107" t="s">
         <v>75</v>
@@ -7658,10 +8525,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C108" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7670,10 +8537,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C109" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7682,10 +8549,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C110" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7694,10 +8561,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C111" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7706,7 +8573,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B112" t="s">
         <v>76</v>
@@ -7718,7 +8585,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -7730,7 +8597,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B114" t="s">
         <v>78</v>
@@ -7742,10 +8609,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C115" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7754,10 +8621,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C116" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7766,10 +8633,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C117" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7778,10 +8645,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C118" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7790,7 +8657,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B119" t="s">
         <v>79</v>
@@ -7802,7 +8669,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B120" t="s">
         <v>80</v>
@@ -7814,10 +8681,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C121" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7826,10 +8693,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C122" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7841,7 +8708,7 @@
         <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C123" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7853,7 +8720,7 @@
         <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C124" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7877,7 +8744,7 @@
         <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C126" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7889,7 +8756,7 @@
         <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C127" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7901,7 +8768,7 @@
         <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C128" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7913,7 +8780,7 @@
         <v>85</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C129" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7925,7 +8792,7 @@
         <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C130" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7937,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C131" s="2" t="str">
         <f t="shared" ref="C131:C169" si="2">IF(ISNA(VLOOKUP(A131,$B$2:$B$170,1,FALSE)),A131,"")</f>
@@ -7949,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C132" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7961,7 +8828,7 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C133" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7973,7 +8840,7 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C134" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7985,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C135" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7997,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C136" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8009,7 +8876,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8021,7 +8888,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8033,7 +8900,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8045,7 +8912,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C140" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8057,7 +8924,7 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C141" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8069,7 +8936,7 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C142" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8081,7 +8948,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8093,7 +8960,7 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C144" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8105,7 +8972,7 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C145" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8117,7 +8984,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C146" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8129,7 +8996,7 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C147" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8141,7 +9008,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C148" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8153,7 +9020,7 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C149" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8165,7 +9032,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C150" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8177,7 +9044,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C151" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8189,7 +9056,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C152" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8201,7 +9068,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C153" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8213,7 +9080,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C154" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8225,7 +9092,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C155" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8237,7 +9104,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C156" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8249,7 +9116,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C157" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8357,7 +9224,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C169" s="2" t="str">
         <f t="shared" si="2"/>

--- a/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
+++ b/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="497">
   <si>
     <t>input_file</t>
   </si>
@@ -1505,28 +1505,23 @@
     <t>C_hexose_root</t>
   </si>
   <si>
-    <t>rapeseed_inputs_PURE.csv</t>
-  </si>
-  <si>
-    <t>rapeseed_inputs_MIXED.csv</t>
-  </si>
-  <si>
-    <t>RAPESEED</t>
-  </si>
-  <si>
     <t>Growth yield as defined by Thornley and Cannell (2000), which corresponds to the fraction of C consumed by growth that is actually used for biomass production (1-yield_growth corresponds to the fraction of C used for growth respiration)</t>
   </si>
   <si>
     <t>Real number / mol of C used for structural mass per mol of C used for growth</t>
+  </si>
+  <si>
+    <t>sucrose_input_Swinnen_et_al_1994_starting_at_55_days.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1679,7 +1674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1975,25 +1970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,7 +2156,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2213,9 +2196,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2343,59 +2323,32 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="52" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="53" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="54" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="55" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2770,13 +2723,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C115" sqref="C115"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2784,11 +2737,11 @@
     <col min="1" max="1" width="32.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="64.77734375" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17" style="39" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17" style="38" customWidth="1"/>
+    <col min="5" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -2801,14 +2754,11 @@
       <c r="D1" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="E1" s="38">
-        <v>183</v>
-      </c>
-      <c r="F1" s="38">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="91">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2818,17 +2768,14 @@
       <c r="C2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2838,57 +2785,48 @@
       <c r="C3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="56">
         <v>1</v>
       </c>
-      <c r="E3" s="81">
-        <v>3</v>
-      </c>
-      <c r="F3" s="81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="E3" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="E4" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="74" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>464</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>464</v>
       </c>
-      <c r="F5" s="81" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2898,17 +2836,14 @@
       <c r="C6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="55">
         <v>60</v>
       </c>
-      <c r="E6" s="86">
-        <v>280</v>
-      </c>
-      <c r="F6" s="86">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2918,17 +2853,14 @@
       <c r="C7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="81">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="F7" s="82">
-        <v>4.1666666999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2938,17 +2870,14 @@
       <c r="C8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="55">
         <v>5</v>
       </c>
-      <c r="E8" s="87">
-        <v>0.25</v>
-      </c>
-      <c r="F8" s="87">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="81">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -2958,17 +2887,14 @@
       <c r="C9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="86" t="s">
-        <v>494</v>
-      </c>
-      <c r="F9" s="86" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -2978,17 +2904,14 @@
       <c r="C10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <v>1</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="80">
         <v>1</v>
       </c>
-      <c r="F10" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>467</v>
       </c>
@@ -2998,17 +2921,14 @@
       <c r="C11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <v>0</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="80">
         <v>0</v>
       </c>
-      <c r="F11" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -3018,17 +2938,14 @@
       <c r="C12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
@@ -3038,17 +2955,14 @@
       <c r="C13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="82">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="F13" s="83">
-        <v>5.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -3058,17 +2972,14 @@
       <c r="C14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>10</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E14" s="80">
         <v>10</v>
       </c>
-      <c r="F14" s="81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>485</v>
       </c>
@@ -3078,17 +2989,14 @@
       <c r="C15" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>486</v>
       </c>
@@ -3098,17 +3006,14 @@
       <c r="C16" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>489</v>
       </c>
@@ -3118,17 +3023,14 @@
       <c r="C17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>490</v>
       </c>
@@ -3138,18 +3040,15 @@
       <c r="C18" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="53">
         <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <v>86400</v>
       </c>
-      <c r="F18" s="81">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
@@ -3159,17 +3058,14 @@
       <c r="C19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -3179,17 +3075,14 @@
       <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <v>3</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="80">
         <v>3</v>
       </c>
-      <c r="F20" s="90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>368</v>
       </c>
@@ -3199,17 +3092,14 @@
       <c r="C21" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>370</v>
       </c>
@@ -3219,17 +3109,14 @@
       <c r="C22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>382</v>
       </c>
@@ -3239,17 +3126,14 @@
       <c r="C23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>381</v>
       </c>
@@ -3259,17 +3143,14 @@
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>380</v>
       </c>
@@ -3279,17 +3160,14 @@
       <c r="C25" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="84" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -3299,17 +3177,14 @@
       <c r="C26" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="81" t="s">
+      <c r="E26" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>13</v>
       </c>
@@ -3319,17 +3194,14 @@
       <c r="C27" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="54">
         <v>0.33</v>
       </c>
-      <c r="E27" s="81">
+      <c r="E27" s="80">
         <v>0.33</v>
       </c>
-      <c r="F27" s="81">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
@@ -3339,17 +3211,14 @@
       <c r="C28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
@@ -3359,17 +3228,14 @@
       <c r="C29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>473</v>
       </c>
@@ -3379,17 +3245,14 @@
       <c r="C30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>21</v>
       </c>
@@ -3399,17 +3262,14 @@
       <c r="C31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
@@ -3419,17 +3279,14 @@
       <c r="C32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="E32" s="81" t="s">
+      <c r="E32" s="80" t="s">
         <v>493</v>
       </c>
-      <c r="F32" s="81" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>23</v>
       </c>
@@ -3439,17 +3296,14 @@
       <c r="C33" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="44">
+      <c r="D33" s="43">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="82">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F33" s="83">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>24</v>
       </c>
@@ -3459,17 +3313,14 @@
       <c r="C34" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="44">
+      <c r="D34" s="43">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>1E-3</v>
       </c>
-      <c r="F34" s="83">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
@@ -3479,17 +3330,14 @@
       <c r="C35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
@@ -3499,17 +3347,14 @@
       <c r="C36" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="81" t="s">
+      <c r="E36" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
@@ -3519,17 +3364,14 @@
       <c r="C37" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>28</v>
       </c>
@@ -3539,17 +3381,14 @@
       <c r="C38" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="81" t="s">
+      <c r="E38" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
@@ -3559,17 +3398,14 @@
       <c r="C39" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="53">
+      <c r="D39" s="52">
         <v>120</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="80">
         <v>120</v>
       </c>
-      <c r="F39" s="81">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>30</v>
       </c>
@@ -3579,17 +3415,14 @@
       <c r="C40" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="52">
         <v>0</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="80">
         <v>0</v>
       </c>
-      <c r="F40" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>31</v>
       </c>
@@ -3599,17 +3432,14 @@
       <c r="C41" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="52">
         <v>0</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="80">
         <v>0</v>
       </c>
-      <c r="F41" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>32</v>
       </c>
@@ -3619,17 +3449,14 @@
       <c r="C42" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="52">
         <v>-0.1</v>
       </c>
-      <c r="E42" s="86">
-        <v>0.12</v>
-      </c>
-      <c r="F42" s="86">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E42" s="80">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>482</v>
       </c>
@@ -3639,17 +3466,14 @@
       <c r="C43" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="52">
         <v>-0.2</v>
       </c>
-      <c r="E43" s="86">
-        <v>-0.5</v>
-      </c>
-      <c r="F43" s="86">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E43" s="80">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>483</v>
       </c>
@@ -3659,17 +3483,14 @@
       <c r="C44" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="52">
         <v>-0.2</v>
       </c>
-      <c r="E44" s="86">
-        <v>-0.5</v>
-      </c>
-      <c r="F44" s="86">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="80">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>33</v>
       </c>
@@ -3679,17 +3500,14 @@
       <c r="C45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="52">
         <v>-0.2</v>
       </c>
-      <c r="E45" s="86">
+      <c r="E45" s="80">
         <v>0.4</v>
       </c>
-      <c r="F45" s="86">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>35</v>
       </c>
@@ -3699,17 +3517,14 @@
       <c r="C46" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="52">
         <v>0</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="80">
         <v>0</v>
       </c>
-      <c r="F46" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>443</v>
       </c>
@@ -3719,17 +3534,14 @@
       <c r="C47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D47" s="52">
         <v>1200</v>
       </c>
-      <c r="E47" s="81">
+      <c r="E47" s="80">
         <v>1200</v>
       </c>
-      <c r="F47" s="81">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>444</v>
       </c>
@@ -3739,17 +3551,14 @@
       <c r="C48" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="52">
         <v>1200</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="80">
         <v>1200</v>
       </c>
-      <c r="F48" s="81">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>476</v>
       </c>
@@ -3759,17 +3568,14 @@
       <c r="C49" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="84" t="s">
         <v>478</v>
       </c>
-      <c r="F49" s="88" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>15</v>
       </c>
@@ -3779,17 +3585,14 @@
       <c r="C50" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="81" t="s">
+      <c r="E50" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="81" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>16</v>
       </c>
@@ -3799,17 +3602,14 @@
       <c r="C51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E51" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>17</v>
       </c>
@@ -3819,17 +3619,14 @@
       <c r="C52" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="57">
         <v>0</v>
       </c>
-      <c r="E52" s="81">
+      <c r="E52" s="80">
         <v>0</v>
       </c>
-      <c r="F52" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>18</v>
       </c>
@@ -3839,17 +3636,14 @@
       <c r="C53" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="57">
         <v>0.5</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="80">
         <v>0.5</v>
       </c>
-      <c r="F53" s="81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>19</v>
       </c>
@@ -3859,17 +3653,14 @@
       <c r="C54" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="58">
+      <c r="D54" s="57">
         <v>0.05</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="80">
         <v>0.05</v>
       </c>
-      <c r="F54" s="81">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>36</v>
       </c>
@@ -3879,17 +3670,14 @@
       <c r="C55" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="58">
         <v>1E-3</v>
       </c>
-      <c r="E55" s="83">
+      <c r="E55" s="82">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="83">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>385</v>
       </c>
@@ -3899,17 +3687,14 @@
       <c r="C56" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="58">
         <v>0</v>
       </c>
-      <c r="E56" s="81">
+      <c r="E56" s="80">
         <v>0</v>
       </c>
-      <c r="F56" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>37</v>
       </c>
@@ -3919,17 +3704,14 @@
       <c r="C57" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D57" s="46">
+      <c r="D57" s="45">
         <v>1E-4</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="80">
         <v>1E-4</v>
       </c>
-      <c r="F57" s="81">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>38</v>
       </c>
@@ -3939,17 +3721,14 @@
       <c r="C58" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="46">
+      <c r="D58" s="45">
         <v>1E-4</v>
       </c>
-      <c r="E58" s="81">
+      <c r="E58" s="80">
         <v>1E-4</v>
       </c>
-      <c r="F58" s="81">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>39</v>
       </c>
@@ -3959,17 +3738,14 @@
       <c r="C59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="62">
+      <c r="D59" s="61">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E59" s="89">
-        <v>5.8377186629974696E-4</v>
-      </c>
-      <c r="F59" s="89">
-        <v>5.8377186629974696E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="80">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>40</v>
       </c>
@@ -3979,17 +3755,14 @@
       <c r="C60" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="62">
+      <c r="D60" s="61">
         <v>1.22E-4</v>
       </c>
-      <c r="E60" s="89">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="F60" s="89">
-        <v>8.2000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="80">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>212</v>
       </c>
@@ -3999,17 +3772,14 @@
       <c r="C61" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D61" s="62">
+      <c r="D61" s="61">
         <v>1</v>
       </c>
-      <c r="E61" s="81">
+      <c r="E61" s="80">
         <v>1</v>
       </c>
-      <c r="F61" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>41</v>
       </c>
@@ -4019,17 +3789,14 @@
       <c r="C62" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="62">
+      <c r="D62" s="61">
         <v>0.95</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="80">
         <v>0.95</v>
       </c>
-      <c r="F62" s="81">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
         <v>413</v>
       </c>
@@ -4039,17 +3806,14 @@
       <c r="C63" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="62" t="s">
+      <c r="D63" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="F63" s="86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>90</v>
       </c>
@@ -4059,17 +3823,14 @@
       <c r="C64" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="62">
+      <c r="D64" s="61">
         <v>5</v>
       </c>
-      <c r="E64" s="86">
-        <v>1</v>
-      </c>
-      <c r="F64" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
         <v>415</v>
       </c>
@@ -4079,17 +3840,14 @@
       <c r="C65" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D65" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>42</v>
       </c>
@@ -4099,17 +3857,14 @@
       <c r="C66" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="62">
+      <c r="D66" s="61">
         <v>50</v>
       </c>
-      <c r="E66" s="86">
-        <v>0</v>
-      </c>
-      <c r="F66" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
         <v>213</v>
       </c>
@@ -4119,17 +3874,14 @@
       <c r="C67" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="47">
+      <c r="D67" s="46">
         <v>1453890.8941884842</v>
       </c>
-      <c r="E67" s="86">
-        <v>0</v>
-      </c>
-      <c r="F67" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="81">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>43</v>
       </c>
@@ -4139,17 +3891,14 @@
       <c r="C68" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="62">
+      <c r="D68" s="61">
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="E68" s="86">
-        <v>0</v>
-      </c>
-      <c r="F68" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="81">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>44</v>
       </c>
@@ -4159,17 +3908,14 @@
       <c r="C69" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="62">
+      <c r="D69" s="61">
         <v>4.5763888888888888E-4</v>
       </c>
-      <c r="E69" s="87">
-        <v>9.0277777777777774E-4</v>
-      </c>
-      <c r="F69" s="87">
-        <v>9.0277777777777774E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="81">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>45</v>
       </c>
@@ -4179,17 +3925,14 @@
       <c r="C70" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="62">
+      <c r="D70" s="61">
         <v>3.63E-3</v>
       </c>
-      <c r="E70" s="89">
-        <v>2.7499999999999998E-3</v>
-      </c>
-      <c r="F70" s="89">
-        <v>2.7499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E70" s="80">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>46</v>
       </c>
@@ -4199,17 +3942,14 @@
       <c r="C71" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="47">
+      <c r="D71" s="46">
         <v>491356.80000000005</v>
       </c>
-      <c r="E71" s="100">
-        <v>181440</v>
-      </c>
-      <c r="F71" s="100">
-        <v>181440</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="81">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>47</v>
       </c>
@@ -4219,17 +3959,14 @@
       <c r="C72" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="62">
+      <c r="D72" s="61">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E72" s="90">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="F72" s="90">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="80">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>48</v>
       </c>
@@ -4239,17 +3976,14 @@
       <c r="C73" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="62">
+      <c r="D73" s="61">
         <v>0.25862068965517243</v>
       </c>
-      <c r="E73" s="91">
-        <v>0.33</v>
-      </c>
-      <c r="F73" s="91">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="85">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>49</v>
       </c>
@@ -4259,17 +3993,14 @@
       <c r="C74" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="62">
+      <c r="D74" s="61">
         <v>0</v>
       </c>
-      <c r="E74" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="F74" s="90">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
         <v>50</v>
       </c>
@@ -4279,17 +4010,14 @@
       <c r="C75" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="D75" s="63">
+      <c r="D75" s="62">
         <v>745476480000</v>
       </c>
-      <c r="E75" s="87">
-        <v>5356800000000</v>
-      </c>
-      <c r="F75" s="87">
-        <v>5356800000000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="81">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
         <v>210</v>
       </c>
@@ -4299,17 +4027,14 @@
       <c r="C76" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="63">
+      <c r="D76" s="62">
         <v>100</v>
       </c>
-      <c r="E76" s="90">
-        <v>5</v>
-      </c>
-      <c r="F76" s="90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
         <v>421</v>
       </c>
@@ -4319,17 +4044,14 @@
       <c r="C77" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E77" s="92" t="s">
+      <c r="E77" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
         <v>406</v>
       </c>
@@ -4339,17 +4061,14 @@
       <c r="C78" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="63">
+      <c r="D78" s="62">
         <v>29203.200000000001</v>
       </c>
-      <c r="E78" s="92">
+      <c r="E78" s="80">
         <v>21600</v>
       </c>
-      <c r="F78" s="92">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>417</v>
       </c>
@@ -4359,17 +4078,14 @@
       <c r="C79" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="63">
+      <c r="D79" s="62">
         <v>0.5</v>
       </c>
-      <c r="E79" s="90">
-        <v>0.75</v>
-      </c>
-      <c r="F79" s="90">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E79" s="80">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>407</v>
       </c>
@@ -4379,17 +4095,14 @@
       <c r="C80" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="63">
+      <c r="D80" s="62">
         <v>387936</v>
       </c>
-      <c r="E80" s="92">
-        <v>259200</v>
-      </c>
-      <c r="F80" s="92">
-        <v>259200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E80" s="80">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
         <v>418</v>
       </c>
@@ -4399,17 +4112,14 @@
       <c r="C81" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D81" s="63">
+      <c r="D81" s="62">
         <v>0.85</v>
       </c>
-      <c r="E81" s="90">
-        <v>0.95</v>
-      </c>
-      <c r="F81" s="90">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="80">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
         <v>408</v>
       </c>
@@ -4419,17 +4129,14 @@
       <c r="C82" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D82" s="63">
+      <c r="D82" s="62">
         <v>518400</v>
       </c>
-      <c r="E82" s="90">
-        <v>1728000</v>
-      </c>
-      <c r="F82" s="90">
-        <v>1728000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E82" s="80">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
         <v>419</v>
       </c>
@@ -4439,17 +4146,14 @@
       <c r="C83" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="63">
+      <c r="D83" s="62">
         <v>5184000</v>
       </c>
-      <c r="E83" s="90">
-        <v>8640000</v>
-      </c>
-      <c r="F83" s="90">
-        <v>8640000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E83" s="80">
+        <v>5184000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>51</v>
       </c>
@@ -4459,17 +4163,14 @@
       <c r="C84" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="62">
+      <c r="D84" s="61">
         <v>259200</v>
       </c>
-      <c r="E84" s="89">
-        <v>100000</v>
-      </c>
-      <c r="F84" s="89">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="82">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>52</v>
       </c>
@@ -4479,17 +4180,14 @@
       <c r="C85" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D85" s="62">
+      <c r="D85" s="61">
         <v>140000</v>
       </c>
-      <c r="E85" s="101">
-        <v>150000</v>
-      </c>
-      <c r="F85" s="101">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E85" s="80">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>53</v>
       </c>
@@ -4499,17 +4197,14 @@
       <c r="C86" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D86" s="62">
+      <c r="D86" s="61">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="E86" s="82">
+      <c r="E86" s="81">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="F86" s="82">
-        <v>3.6636136999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
         <v>54</v>
       </c>
@@ -4519,17 +4214,14 @@
       <c r="C87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="62">
+      <c r="D87" s="61">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="E87" s="86">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F87" s="86">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E87" s="80">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
@@ -4539,17 +4231,14 @@
       <c r="C88" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D88" s="62">
+      <c r="D88" s="61">
         <v>0.05</v>
       </c>
-      <c r="E88" s="81">
+      <c r="E88" s="80">
         <v>0.05</v>
       </c>
-      <c r="F88" s="81">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>219</v>
       </c>
@@ -4559,17 +4248,14 @@
       <c r="C89" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="64">
+      <c r="D89" s="63">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="E89" s="102">
-        <v>1.077482269503545E-5</v>
-      </c>
-      <c r="F89" s="102">
-        <v>1.077482269503545E-5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E89" s="80">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
         <v>220</v>
       </c>
@@ -4579,17 +4265,14 @@
       <c r="C90" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="63">
         <v>1E-3</v>
       </c>
-      <c r="E90" s="102">
-        <v>9.5212765957446805E-4</v>
-      </c>
-      <c r="F90" s="102">
-        <v>9.5212765957446805E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E90" s="80">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
         <v>221</v>
       </c>
@@ -4599,17 +4282,14 @@
       <c r="C91" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D91" s="64">
+      <c r="D91" s="63">
         <v>374999999.99999994</v>
       </c>
-      <c r="E91" s="102">
-        <v>54903164.30816105</v>
-      </c>
-      <c r="F91" s="102">
-        <v>54903164.30816105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="80">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
         <v>222</v>
       </c>
@@ -4619,17 +4299,14 @@
       <c r="C92" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D92" s="64">
+      <c r="D92" s="63">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="E92" s="82">
+      <c r="E92" s="81">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="F92" s="82">
-        <v>3.7037037037037038E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>223</v>
       </c>
@@ -4639,17 +4316,14 @@
       <c r="C93" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="63">
         <v>165600</v>
       </c>
-      <c r="E93" s="81">
+      <c r="E93" s="80">
         <v>165600</v>
       </c>
-      <c r="F93" s="81">
-        <v>165600</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>60</v>
       </c>
@@ -4659,17 +4333,14 @@
       <c r="C94" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="52">
         <v>20</v>
       </c>
-      <c r="E94" s="81">
+      <c r="E94" s="80">
         <v>20</v>
       </c>
-      <c r="F94" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>214</v>
       </c>
@@ -4679,17 +4350,14 @@
       <c r="C95" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D95" s="53">
+      <c r="D95" s="52">
         <v>1</v>
       </c>
-      <c r="E95" s="81">
+      <c r="E95" s="80">
         <v>1</v>
       </c>
-      <c r="F95" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>59</v>
       </c>
@@ -4699,17 +4367,14 @@
       <c r="C96" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="52">
         <v>21</v>
       </c>
-      <c r="E96" s="81">
+      <c r="E96" s="80">
         <v>21</v>
       </c>
-      <c r="F96" s="81">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>65</v>
       </c>
@@ -4719,17 +4384,14 @@
       <c r="C97" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D97" s="61">
+      <c r="D97" s="60">
         <v>0.64</v>
       </c>
-      <c r="E97" s="81">
+      <c r="E97" s="80">
         <v>0.64</v>
       </c>
-      <c r="F97" s="81">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
         <v>372</v>
       </c>
@@ -4739,17 +4401,14 @@
       <c r="C98" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="61">
+      <c r="D98" s="60">
         <v>8</v>
       </c>
-      <c r="E98" s="81">
+      <c r="E98" s="80">
         <v>8</v>
       </c>
-      <c r="F98" s="81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
         <v>373</v>
       </c>
@@ -4759,17 +4418,14 @@
       <c r="C99" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D99" s="61">
+      <c r="D99" s="60">
         <v>10</v>
       </c>
-      <c r="E99" s="81">
+      <c r="E99" s="80">
         <v>10</v>
       </c>
-      <c r="F99" s="81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
         <v>374</v>
       </c>
@@ -4779,17 +4435,14 @@
       <c r="C100" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="61">
+      <c r="D100" s="60">
         <v>8</v>
       </c>
-      <c r="E100" s="81">
+      <c r="E100" s="80">
         <v>8</v>
       </c>
-      <c r="F100" s="81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
         <v>389</v>
       </c>
@@ -4799,17 +4452,14 @@
       <c r="C101" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="61">
+      <c r="D101" s="60">
         <v>1</v>
       </c>
-      <c r="E101" s="81">
+      <c r="E101" s="80">
         <v>1</v>
       </c>
-      <c r="F101" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
         <v>391</v>
       </c>
@@ -4819,17 +4469,14 @@
       <c r="C102" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="D102" s="61">
+      <c r="D102" s="60">
         <v>0.5</v>
       </c>
-      <c r="E102" s="81">
+      <c r="E102" s="80">
         <v>0.5</v>
       </c>
-      <c r="F102" s="81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
         <v>393</v>
       </c>
@@ -4839,17 +4486,14 @@
       <c r="C103" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="61">
+      <c r="D103" s="60">
         <v>0</v>
       </c>
-      <c r="E103" s="81">
+      <c r="E103" s="80">
         <v>0</v>
       </c>
-      <c r="F103" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
         <v>395</v>
       </c>
@@ -4859,17 +4503,14 @@
       <c r="C104" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D104" s="61">
+      <c r="D104" s="60">
         <v>1589759.9999999998</v>
       </c>
-      <c r="E104" s="85">
+      <c r="E104" s="86">
         <v>1589759.9999999998</v>
       </c>
-      <c r="F104" s="85">
-        <v>1589759.9999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
         <v>397</v>
       </c>
@@ -4879,17 +4520,14 @@
       <c r="C105" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="61">
+      <c r="D105" s="60">
         <v>6171428.5714285718</v>
       </c>
-      <c r="E105" s="93">
+      <c r="E105" s="86">
         <v>455327.99999999994</v>
       </c>
-      <c r="F105" s="93">
-        <v>455327.99999999994</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
         <v>399</v>
       </c>
@@ -4899,17 +4537,14 @@
       <c r="C106" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="61">
+      <c r="D106" s="60">
         <v>6171428.5714285718</v>
       </c>
-      <c r="E106" s="103">
-        <v>455327.99999999994</v>
-      </c>
-      <c r="F106" s="103">
-        <v>455327.99999999994</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="86">
+        <v>664416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
         <v>428</v>
       </c>
@@ -4919,17 +4554,14 @@
       <c r="C107" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D107" s="70">
+      <c r="D107" s="69">
         <v>100</v>
       </c>
-      <c r="E107" s="94">
+      <c r="E107" s="86">
         <v>100</v>
       </c>
-      <c r="F107" s="94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
         <v>430</v>
       </c>
@@ -4939,17 +4571,14 @@
       <c r="C108" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D108" s="70">
+      <c r="D108" s="69">
         <v>280800</v>
       </c>
-      <c r="E108" s="85">
+      <c r="E108" s="86">
         <v>280800</v>
       </c>
-      <c r="F108" s="85">
-        <v>280800</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
         <v>432</v>
       </c>
@@ -4959,17 +4588,14 @@
       <c r="C109" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D109" s="70">
+      <c r="D109" s="69">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E109" s="95">
+      <c r="E109" s="87">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="F109" s="95">
-        <v>1.2847222222222224E-5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
         <v>434</v>
       </c>
@@ -4979,17 +4605,14 @@
       <c r="C110" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="D110" s="70">
+      <c r="D110" s="69">
         <v>100</v>
       </c>
-      <c r="E110" s="94">
+      <c r="E110" s="86">
         <v>90</v>
       </c>
-      <c r="F110" s="94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
         <v>436</v>
       </c>
@@ -4999,17 +4622,14 @@
       <c r="C111" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D111" s="70">
+      <c r="D111" s="69">
         <v>459648</v>
       </c>
-      <c r="E111" s="85">
+      <c r="E111" s="86">
         <v>459648</v>
       </c>
-      <c r="F111" s="85">
-        <v>459648</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>438</v>
       </c>
@@ -5019,17 +4639,14 @@
       <c r="C112" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="D112" s="70">
+      <c r="D112" s="69">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E112" s="95">
+      <c r="E112" s="87">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="F112" s="95">
-        <v>1.2847222222222224E-5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>401</v>
       </c>
@@ -5039,17 +4656,14 @@
       <c r="C113" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D113" s="70">
+      <c r="D113" s="69">
         <v>21600</v>
       </c>
-      <c r="E113" s="85">
+      <c r="E113" s="86">
         <v>21600</v>
       </c>
-      <c r="F113" s="85">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>403</v>
       </c>
@@ -5059,37 +4673,31 @@
       <c r="C114" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D114" s="70">
+      <c r="D114" s="69">
         <v>172800</v>
       </c>
-      <c r="E114" s="85">
+      <c r="E114" s="86">
         <v>43200</v>
       </c>
-      <c r="F114" s="85">
-        <v>43200</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="D115" s="53">
+        <v>495</v>
+      </c>
+      <c r="D115" s="52">
         <v>0.8</v>
       </c>
-      <c r="E115" s="81">
+      <c r="E115" s="80">
         <v>0.8</v>
       </c>
-      <c r="F115" s="81">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>62</v>
       </c>
@@ -5099,17 +4707,14 @@
       <c r="C116" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D116" s="44">
+      <c r="D116" s="43">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E116" s="82">
+      <c r="E116" s="81">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F116" s="82">
-        <v>2.0833333333333335E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>63</v>
       </c>
@@ -5119,17 +4724,14 @@
       <c r="C117" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D117" s="44">
+      <c r="D117" s="43">
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="E117" s="89">
-        <v>2.8935185185185188E-6</v>
-      </c>
-      <c r="F117" s="89">
-        <v>2.8935185185185188E-6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E117" s="87">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>64</v>
       </c>
@@ -5139,17 +4741,14 @@
       <c r="C118" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D118" s="44">
+      <c r="D118" s="43">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E118" s="82">
+      <c r="E118" s="81">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F118" s="82">
-        <v>2.0833333333333335E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>469</v>
       </c>
@@ -5159,17 +4758,14 @@
       <c r="C119" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D119" s="44">
+      <c r="D119" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E119" s="82">
+      <c r="E119" s="81">
         <v>0</v>
       </c>
-      <c r="F119" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>470</v>
       </c>
@@ -5179,77 +4775,65 @@
       <c r="C120" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="44">
+      <c r="D120" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E120" s="82">
+      <c r="E120" s="81">
         <v>0</v>
       </c>
-      <c r="F120" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="71" t="s">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="B121" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C121" s="72" t="s">
+      <c r="C121" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="D121" s="73">
+      <c r="D121" s="72">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E121" s="96" t="s">
+      <c r="E121" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="F121" s="96" t="s">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="71" t="s">
+        <v>454</v>
+      </c>
+      <c r="C122" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="D122" s="73">
+        <v>1.6666666666666666E-4</v>
+      </c>
+      <c r="E122" s="88" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B122" s="72" t="s">
-        <v>454</v>
-      </c>
-      <c r="C122" s="72" t="s">
-        <v>455</v>
-      </c>
-      <c r="D122" s="74">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E122" s="96" t="s">
-        <v>412</v>
-      </c>
-      <c r="F122" s="96" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="71" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="70" t="s">
         <v>465</v>
       </c>
-      <c r="B123" s="72" t="s">
+      <c r="B123" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="C123" s="72" t="s">
+      <c r="C123" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D123" s="74" t="s">
+      <c r="D123" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="E123" s="96" t="s">
+      <c r="E123" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="F123" s="96" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
         <v>66</v>
       </c>
@@ -5259,17 +4843,14 @@
       <c r="C124" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D124" s="60">
+      <c r="D124" s="59">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E124" s="97">
+      <c r="E124" s="82">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F124" s="97">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
         <v>447</v>
       </c>
@@ -5279,17 +4860,14 @@
       <c r="C125" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="D125" s="69">
+      <c r="D125" s="68">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="E125" s="97">
+      <c r="E125" s="82">
         <v>4.9999999999999999E-13</v>
       </c>
-      <c r="F125" s="97">
-        <v>4.9999999999999999E-13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
         <v>456</v>
       </c>
@@ -5299,17 +4877,14 @@
       <c r="C126" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D126" s="60">
+      <c r="D126" s="59">
         <v>10</v>
       </c>
-      <c r="E126" s="81">
+      <c r="E126" s="80">
         <v>10</v>
       </c>
-      <c r="F126" s="81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
         <v>457</v>
       </c>
@@ -5319,17 +4894,14 @@
       <c r="C127" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D127" s="60">
+      <c r="D127" s="59">
         <v>-0.04</v>
       </c>
-      <c r="E127" s="81">
+      <c r="E127" s="80">
         <v>-0.04</v>
       </c>
-      <c r="F127" s="81">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
         <v>458</v>
       </c>
@@ -5339,17 +4911,14 @@
       <c r="C128" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="60">
+      <c r="D128" s="59">
         <v>2.9</v>
       </c>
-      <c r="E128" s="81">
+      <c r="E128" s="80">
         <v>2.9</v>
       </c>
-      <c r="F128" s="81">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
         <v>459</v>
       </c>
@@ -5359,37 +4928,31 @@
       <c r="C129" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D129" s="60">
+      <c r="D129" s="59">
         <v>1</v>
       </c>
-      <c r="E129" s="81">
+      <c r="E129" s="80">
         <v>1</v>
       </c>
-      <c r="F129" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="71" t="s">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="B130" s="72" t="s">
+      <c r="B130" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="C130" s="72" t="s">
+      <c r="C130" s="71" t="s">
         <v>453</v>
       </c>
-      <c r="D130" s="73">
+      <c r="D130" s="72">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E130" s="83">
+      <c r="E130" s="82">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="F130" s="83">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
         <v>238</v>
       </c>
@@ -5399,17 +4962,14 @@
       <c r="C131" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D131" s="60">
+      <c r="D131" s="59">
         <v>10</v>
       </c>
-      <c r="E131" s="81">
+      <c r="E131" s="80">
         <v>10</v>
       </c>
-      <c r="F131" s="81">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>239</v>
       </c>
@@ -5419,17 +4979,14 @@
       <c r="C132" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D132" s="60">
+      <c r="D132" s="59">
         <v>-0.04</v>
       </c>
-      <c r="E132" s="81">
+      <c r="E132" s="80">
         <v>-0.04</v>
       </c>
-      <c r="F132" s="81">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
         <v>240</v>
       </c>
@@ -5439,17 +4996,14 @@
       <c r="C133" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D133" s="60">
+      <c r="D133" s="59">
         <v>2.9</v>
       </c>
-      <c r="E133" s="81">
+      <c r="E133" s="80">
         <v>2.9</v>
       </c>
-      <c r="F133" s="81">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
         <v>241</v>
       </c>
@@ -5459,17 +5013,14 @@
       <c r="C134" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D134" s="60">
+      <c r="D134" s="59">
         <v>1</v>
       </c>
-      <c r="E134" s="81">
+      <c r="E134" s="80">
         <v>1</v>
       </c>
-      <c r="F134" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
         <v>69</v>
       </c>
@@ -5479,17 +5030,14 @@
       <c r="C135" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D135" s="60">
+      <c r="D135" s="59">
         <v>0</v>
       </c>
-      <c r="E135" s="81">
+      <c r="E135" s="80">
         <v>0</v>
       </c>
-      <c r="F135" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
         <v>70</v>
       </c>
@@ -5499,17 +5047,14 @@
       <c r="C136" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D136" s="49">
+      <c r="D136" s="48">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E136" s="83">
+      <c r="E136" s="92">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="F136" s="83">
-        <v>5.0000000000000004E-6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
         <v>56</v>
       </c>
@@ -5519,17 +5064,14 @@
       <c r="C137" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="48">
+      <c r="D137" s="47">
         <v>0</v>
       </c>
-      <c r="E137" s="81">
+      <c r="E137" s="80">
         <v>0</v>
       </c>
-      <c r="F137" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
         <v>57</v>
       </c>
@@ -5539,17 +5081,14 @@
       <c r="C138" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D138" s="48">
+      <c r="D138" s="47">
         <v>2E-3</v>
       </c>
-      <c r="E138" s="90">
-        <v>0.02</v>
-      </c>
-      <c r="F138" s="90">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E138" s="80">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="24" t="s">
         <v>58</v>
       </c>
@@ -5559,17 +5098,14 @@
       <c r="C139" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D139" s="48">
+      <c r="D139" s="47">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E139" s="83">
+      <c r="E139" s="82">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="F139" s="83">
-        <v>3.9999999999999998E-6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="24" t="s">
         <v>71</v>
       </c>
@@ -5579,17 +5115,14 @@
       <c r="C140" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D140" s="48">
+      <c r="D140" s="47">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="E140" s="83">
+      <c r="E140" s="82">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="F140" s="83">
-        <v>3.7699999999999999E-10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
         <v>242</v>
       </c>
@@ -5599,17 +5132,14 @@
       <c r="C141" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D141" s="48">
+      <c r="D141" s="47">
         <v>20</v>
       </c>
-      <c r="E141" s="81">
+      <c r="E141" s="80">
         <v>20</v>
       </c>
-      <c r="F141" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
         <v>243</v>
       </c>
@@ -5619,17 +5149,14 @@
       <c r="C142" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D142" s="48">
+      <c r="D142" s="47">
         <v>-0.06</v>
       </c>
-      <c r="E142" s="81">
+      <c r="E142" s="80">
         <v>-0.06</v>
       </c>
-      <c r="F142" s="81">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
         <v>244</v>
       </c>
@@ -5639,17 +5166,14 @@
       <c r="C143" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D143" s="48">
+      <c r="D143" s="47">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E143" s="81">
+      <c r="E143" s="80">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F143" s="81">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
         <v>245</v>
       </c>
@@ -5659,17 +5183,14 @@
       <c r="C144" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D144" s="48">
+      <c r="D144" s="47">
         <v>1</v>
       </c>
-      <c r="E144" s="81">
+      <c r="E144" s="80">
         <v>1</v>
       </c>
-      <c r="F144" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
         <v>72</v>
       </c>
@@ -5679,17 +5200,14 @@
       <c r="C145" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D145" s="48">
+      <c r="D145" s="47">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E145" s="83">
+      <c r="E145" s="82">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F145" s="83">
-        <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>73</v>
       </c>
@@ -5699,17 +5217,14 @@
       <c r="C146" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D146" s="44">
+      <c r="D146" s="43">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="E146" s="83">
+      <c r="E146" s="82">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="F146" s="83">
-        <v>5.8333333333333335E-9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>246</v>
       </c>
@@ -5719,17 +5234,14 @@
       <c r="C147" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D147" s="53">
+      <c r="D147" s="52">
         <v>20</v>
       </c>
-      <c r="E147" s="81">
+      <c r="E147" s="80">
         <v>20</v>
       </c>
-      <c r="F147" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>247</v>
       </c>
@@ -5739,17 +5251,14 @@
       <c r="C148" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D148" s="53">
+      <c r="D148" s="52">
         <v>-0.06</v>
       </c>
-      <c r="E148" s="81">
+      <c r="E148" s="80">
         <v>-0.06</v>
       </c>
-      <c r="F148" s="81">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>248</v>
       </c>
@@ -5759,17 +5268,14 @@
       <c r="C149" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D149" s="53">
+      <c r="D149" s="52">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E149" s="81">
+      <c r="E149" s="80">
         <v>0.89100000000000001</v>
       </c>
-      <c r="F149" s="81">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>249</v>
       </c>
@@ -5779,17 +5285,14 @@
       <c r="C150" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D150" s="53">
+      <c r="D150" s="52">
         <v>1</v>
       </c>
-      <c r="E150" s="81">
+      <c r="E150" s="80">
         <v>1</v>
       </c>
-      <c r="F150" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>74</v>
       </c>
@@ -5799,17 +5302,14 @@
       <c r="C151" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D151" s="53">
+      <c r="D151" s="52">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E151" s="83">
+      <c r="E151" s="82">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="F151" s="83">
-        <v>4.0000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>75</v>
       </c>
@@ -5819,17 +5319,14 @@
       <c r="C152" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D152" s="43">
+      <c r="D152" s="42">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="E152" s="97">
+      <c r="E152" s="82">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="F152" s="97">
-        <v>4.0000000000000001E-8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>224</v>
       </c>
@@ -5839,17 +5336,14 @@
       <c r="C153" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D153" s="55">
+      <c r="D153" s="54">
         <v>20</v>
       </c>
-      <c r="E153" s="81">
+      <c r="E153" s="80">
         <v>20</v>
       </c>
-      <c r="F153" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>225</v>
       </c>
@@ -5859,17 +5353,14 @@
       <c r="C154" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D154" s="55">
+      <c r="D154" s="54">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="E154" s="81">
+      <c r="E154" s="80">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="F154" s="81">
-        <v>-4.4200000000000003E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>226</v>
       </c>
@@ -5879,17 +5370,14 @@
       <c r="C155" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D155" s="55">
+      <c r="D155" s="54">
         <v>1.55</v>
       </c>
-      <c r="E155" s="81">
+      <c r="E155" s="80">
         <v>1.55</v>
       </c>
-      <c r="F155" s="81">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>227</v>
       </c>
@@ -5899,17 +5387,14 @@
       <c r="C156" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D156" s="55">
+      <c r="D156" s="54">
         <v>1</v>
       </c>
-      <c r="E156" s="81">
+      <c r="E156" s="80">
         <v>1</v>
       </c>
-      <c r="F156" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>76</v>
       </c>
@@ -5919,17 +5404,14 @@
       <c r="C157" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D157" s="55">
+      <c r="D157" s="54">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E157" s="81">
+      <c r="E157" s="80">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="F157" s="81">
-        <v>2.7799999999999998E-4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>78</v>
       </c>
@@ -5939,17 +5421,14 @@
       <c r="C158" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D158" s="65">
+      <c r="D158" s="64">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="E158" s="98">
+      <c r="E158" s="82">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="F158" s="98">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
         <v>251</v>
       </c>
@@ -5959,17 +5438,14 @@
       <c r="C159" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D159" s="65">
+      <c r="D159" s="64">
         <v>20</v>
       </c>
-      <c r="E159" s="81">
+      <c r="E159" s="80">
         <v>20</v>
       </c>
-      <c r="F159" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
         <v>252</v>
       </c>
@@ -5979,17 +5455,14 @@
       <c r="C160" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D160" s="65">
+      <c r="D160" s="64">
         <v>0</v>
       </c>
-      <c r="E160" s="81">
+      <c r="E160" s="80">
         <v>0</v>
       </c>
-      <c r="F160" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>253</v>
       </c>
@@ -5999,17 +5472,14 @@
       <c r="C161" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D161" s="65">
+      <c r="D161" s="64">
         <v>1</v>
       </c>
-      <c r="E161" s="81">
+      <c r="E161" s="80">
         <v>1</v>
       </c>
-      <c r="F161" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
         <v>254</v>
       </c>
@@ -6019,17 +5489,14 @@
       <c r="C162" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D162" s="65">
+      <c r="D162" s="64">
         <v>0</v>
       </c>
-      <c r="E162" s="81">
+      <c r="E162" s="80">
         <v>0</v>
       </c>
-      <c r="F162" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>79</v>
       </c>
@@ -6039,17 +5506,14 @@
       <c r="C163" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D163" s="65">
+      <c r="D163" s="64">
         <v>0.4</v>
       </c>
-      <c r="E163" s="81">
+      <c r="E163" s="80">
         <v>0.4</v>
       </c>
-      <c r="F163" s="81">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>80</v>
       </c>
@@ -6059,17 +5523,14 @@
       <c r="C164" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D164" s="50">
+      <c r="D164" s="49">
         <v>3.2100000000000002E-6</v>
       </c>
-      <c r="E164" s="83">
+      <c r="E164" s="82">
         <v>2.0000000000000001E-9</v>
       </c>
-      <c r="F164" s="83">
-        <v>2.0000000000000001E-9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
         <v>255</v>
       </c>
@@ -6079,17 +5540,14 @@
       <c r="C165" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D165" s="66">
+      <c r="D165" s="65">
         <v>25</v>
       </c>
-      <c r="E165" s="81">
+      <c r="E165" s="80">
         <v>25</v>
       </c>
-      <c r="F165" s="81">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
         <v>256</v>
       </c>
@@ -6099,17 +5557,14 @@
       <c r="C166" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D166" s="66">
+      <c r="D166" s="65">
         <v>0</v>
       </c>
-      <c r="E166" s="81">
+      <c r="E166" s="80">
         <v>0</v>
       </c>
-      <c r="F166" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
         <v>257</v>
       </c>
@@ -6119,17 +5574,14 @@
       <c r="C167" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D167" s="66">
+      <c r="D167" s="65">
         <v>3.98</v>
       </c>
-      <c r="E167" s="81">
+      <c r="E167" s="80">
         <v>3.98</v>
       </c>
-      <c r="F167" s="81">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
         <v>258</v>
       </c>
@@ -6139,17 +5591,14 @@
       <c r="C168" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D168" s="66">
+      <c r="D168" s="65">
         <v>1</v>
       </c>
-      <c r="E168" s="81">
+      <c r="E168" s="80">
         <v>1</v>
       </c>
-      <c r="F168" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>81</v>
       </c>
@@ -6159,17 +5608,14 @@
       <c r="C169" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="D169" s="50">
+      <c r="D169" s="49">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E169" s="82">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="F169" s="82">
-        <v>1.6666666666666666E-4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E169" s="93">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
         <v>259</v>
       </c>
@@ -6179,17 +5625,14 @@
       <c r="C170" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="D170" s="45">
+      <c r="D170" s="44">
         <v>1E-8</v>
       </c>
-      <c r="E170" s="83">
+      <c r="E170" s="82">
         <v>1E-8</v>
       </c>
-      <c r="F170" s="83">
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
         <v>260</v>
       </c>
@@ -6199,17 +5642,14 @@
       <c r="C171" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D171" s="58">
+      <c r="D171" s="57">
         <v>20</v>
       </c>
-      <c r="E171" s="81">
+      <c r="E171" s="80">
         <v>20</v>
       </c>
-      <c r="F171" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
         <v>261</v>
       </c>
@@ -6219,17 +5659,14 @@
       <c r="C172" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D172" s="58">
+      <c r="D172" s="57">
         <v>0</v>
       </c>
-      <c r="E172" s="81">
+      <c r="E172" s="80">
         <v>0</v>
       </c>
-      <c r="F172" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
         <v>262</v>
       </c>
@@ -6239,17 +5676,14 @@
       <c r="C173" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D173" s="58">
+      <c r="D173" s="57">
         <v>2</v>
       </c>
-      <c r="E173" s="81">
+      <c r="E173" s="80">
         <v>2</v>
       </c>
-      <c r="F173" s="81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
         <v>263</v>
       </c>
@@ -6259,17 +5693,14 @@
       <c r="C174" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D174" s="58">
+      <c r="D174" s="57">
         <v>1</v>
       </c>
-      <c r="E174" s="81">
+      <c r="E174" s="80">
         <v>1</v>
       </c>
-      <c r="F174" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
         <v>264</v>
       </c>
@@ -6279,17 +5710,14 @@
       <c r="C175" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D175" s="45">
+      <c r="D175" s="44">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E175" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="F175" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E175" s="93">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
         <v>265</v>
       </c>
@@ -6299,17 +5727,14 @@
       <c r="C176" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D176" s="58">
+      <c r="D176" s="57">
         <v>1</v>
       </c>
-      <c r="E176" s="81">
+      <c r="E176" s="80">
         <v>1</v>
       </c>
-      <c r="F176" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
         <v>266</v>
       </c>
@@ -6319,17 +5744,14 @@
       <c r="C177" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="D177" s="51">
+      <c r="D177" s="50">
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="E177" s="81">
+      <c r="E177" s="80">
         <v>2.3533050791148899E-8</v>
       </c>
-      <c r="F177" s="81">
-        <v>2.3533050791148899E-8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
         <v>267</v>
       </c>
@@ -6339,17 +5761,14 @@
       <c r="C178" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D178" s="67">
+      <c r="D178" s="66">
         <v>20</v>
       </c>
-      <c r="E178" s="81">
+      <c r="E178" s="80">
         <v>20</v>
       </c>
-      <c r="F178" s="81">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
         <v>268</v>
       </c>
@@ -6359,17 +5778,14 @@
       <c r="C179" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="D179" s="67">
+      <c r="D179" s="66">
         <v>-0.187</v>
       </c>
-      <c r="E179" s="81">
+      <c r="E179" s="80">
         <v>-0.187</v>
       </c>
-      <c r="F179" s="81">
-        <v>-0.187</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
         <v>269</v>
       </c>
@@ -6379,17 +5795,14 @@
       <c r="C180" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D180" s="67">
+      <c r="D180" s="66">
         <v>2.48</v>
       </c>
-      <c r="E180" s="81">
+      <c r="E180" s="80">
         <v>2.48</v>
       </c>
-      <c r="F180" s="81">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
         <v>270</v>
       </c>
@@ -6399,17 +5812,14 @@
       <c r="C181" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D181" s="67">
+      <c r="D181" s="66">
         <v>1</v>
       </c>
-      <c r="E181" s="81">
+      <c r="E181" s="80">
         <v>1</v>
       </c>
-      <c r="F181" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="28" t="s">
         <v>271</v>
       </c>
@@ -6419,17 +5829,14 @@
       <c r="C182" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="D182" s="51">
+      <c r="D182" s="50">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="E182" s="81">
+      <c r="E182" s="80">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="F182" s="81">
-        <v>6.1060227588121015E-4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="24" t="s">
         <v>272</v>
       </c>
@@ -6439,17 +5846,14 @@
       <c r="C183" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D183" s="48">
+      <c r="D183" s="47">
         <v>6.41E-9</v>
       </c>
-      <c r="E183" s="81">
+      <c r="E183" s="89">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="F183" s="81">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="24" t="s">
         <v>273</v>
       </c>
@@ -6459,17 +5863,14 @@
       <c r="C184" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="D184" s="61">
+      <c r="D184" s="60">
         <v>25</v>
       </c>
-      <c r="E184" s="81">
+      <c r="E184" s="89">
         <v>25</v>
       </c>
-      <c r="F184" s="81">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="24" t="s">
         <v>274</v>
       </c>
@@ -6479,17 +5880,14 @@
       <c r="C185" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D185" s="61">
+      <c r="D185" s="60">
         <v>0</v>
       </c>
-      <c r="E185" s="81">
+      <c r="E185" s="89">
         <v>0</v>
       </c>
-      <c r="F185" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="24" t="s">
         <v>275</v>
       </c>
@@ -6499,17 +5897,14 @@
       <c r="C186" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D186" s="61">
+      <c r="D186" s="60">
         <v>3.98</v>
       </c>
-      <c r="E186" s="81">
+      <c r="E186" s="89">
         <v>3.98</v>
       </c>
-      <c r="F186" s="81">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="24" t="s">
         <v>276</v>
       </c>
@@ -6519,17 +5914,14 @@
       <c r="C187" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="D187" s="61">
+      <c r="D187" s="60">
         <v>1</v>
       </c>
-      <c r="E187" s="81">
+      <c r="E187" s="89">
         <v>1</v>
       </c>
-      <c r="F187" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="24" t="s">
         <v>277</v>
       </c>
@@ -6539,17 +5931,14 @@
       <c r="C188" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="D188" s="48">
+      <c r="D188" s="47">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E188" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="F188" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E188" s="93">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>278</v>
       </c>
@@ -6559,17 +5948,14 @@
       <c r="C189" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D189" s="42">
+      <c r="D189" s="41">
         <v>6.41E-9</v>
       </c>
-      <c r="E189" s="81">
+      <c r="E189" s="89">
         <v>3.9999999999999998E-7</v>
       </c>
-      <c r="F189" s="81">
-        <v>3.9999999999999998E-7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>279</v>
       </c>
@@ -6579,17 +5965,14 @@
       <c r="C190" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D190" s="54">
+      <c r="D190" s="53">
         <v>25</v>
       </c>
-      <c r="E190" s="81">
+      <c r="E190" s="89">
         <v>25</v>
       </c>
-      <c r="F190" s="81">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>280</v>
       </c>
@@ -6599,17 +5982,14 @@
       <c r="C191" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D191" s="54">
+      <c r="D191" s="53">
         <v>0</v>
       </c>
-      <c r="E191" s="81">
+      <c r="E191" s="89">
         <v>0</v>
       </c>
-      <c r="F191" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>281</v>
       </c>
@@ -6619,17 +5999,14 @@
       <c r="C192" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D192" s="54">
+      <c r="D192" s="53">
         <v>3.98</v>
       </c>
-      <c r="E192" s="81">
+      <c r="E192" s="89">
         <v>3.98</v>
       </c>
-      <c r="F192" s="81">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>282</v>
       </c>
@@ -6639,17 +6016,14 @@
       <c r="C193" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D193" s="54">
+      <c r="D193" s="53">
         <v>1</v>
       </c>
-      <c r="E193" s="81">
+      <c r="E193" s="89">
         <v>1</v>
       </c>
-      <c r="F193" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>283</v>
       </c>
@@ -6659,17 +6033,14 @@
       <c r="C194" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D194" s="42">
+      <c r="D194" s="41">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E194" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="F194" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E194" s="93">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="30" t="s">
         <v>284</v>
       </c>
@@ -6679,17 +6050,14 @@
       <c r="C195" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="D195" s="52">
+      <c r="D195" s="51">
         <v>3.205E-9</v>
       </c>
-      <c r="E195" s="81">
+      <c r="E195" s="89">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="F195" s="81">
-        <v>1.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="30" t="s">
         <v>285</v>
       </c>
@@ -6699,17 +6067,14 @@
       <c r="C196" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="D196" s="68">
+      <c r="D196" s="67">
         <v>25</v>
       </c>
-      <c r="E196" s="81">
+      <c r="E196" s="89">
         <v>25</v>
       </c>
-      <c r="F196" s="81">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="30" t="s">
         <v>286</v>
       </c>
@@ -6719,17 +6084,14 @@
       <c r="C197" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="D197" s="68">
+      <c r="D197" s="67">
         <v>0</v>
       </c>
-      <c r="E197" s="81">
+      <c r="E197" s="89">
         <v>0</v>
       </c>
-      <c r="F197" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="30" t="s">
         <v>287</v>
       </c>
@@ -6739,17 +6101,14 @@
       <c r="C198" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D198" s="68">
+      <c r="D198" s="67">
         <v>3.98</v>
       </c>
-      <c r="E198" s="81">
+      <c r="E198" s="89">
         <v>3.98</v>
       </c>
-      <c r="F198" s="81">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="30" t="s">
         <v>288</v>
       </c>
@@ -6759,17 +6118,14 @@
       <c r="C199" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D199" s="68">
+      <c r="D199" s="67">
         <v>1</v>
       </c>
-      <c r="E199" s="81">
+      <c r="E199" s="89">
         <v>1</v>
       </c>
-      <c r="F199" s="81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="30" t="s">
         <v>289</v>
       </c>
@@ -6779,445 +6135,31 @@
       <c r="C200" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D200" s="52">
+      <c r="D200" s="51">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E200" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-      <c r="F200" s="82">
-        <v>8.3333333333333331E-5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="78" t="s">
+      <c r="E200" s="93">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="77" t="s">
         <v>367</v>
       </c>
-      <c r="B201" s="79" t="s">
+      <c r="B201" s="78" t="s">
         <v>487</v>
       </c>
-      <c r="C201" s="79" t="s">
+      <c r="C201" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D201" s="80" t="s">
+      <c r="D201" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="E201" s="99" t="s">
-        <v>496</v>
-      </c>
-      <c r="F201" s="99" t="s">
-        <v>496</v>
+      <c r="E201" s="90" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119:E120">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E125">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E152">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F125">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F119:F120">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F124">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F125">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F136">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F130">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F158">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
+++ b/src/rhizodep/scenarios/inputs/scenarios_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="496">
   <si>
     <t>input_file</t>
   </si>
@@ -536,27 +536,9 @@
     <t>Minimal concentration of hexose in the root below which no immobilization into the reserve pool can occur</t>
   </si>
   <si>
-    <t>The sheet "scenarios_as_columns" enable to define a list of different scenarios to be simulated by rhizodep using the programm "main_run_scenarios.py".</t>
-  </si>
-  <si>
-    <t>This file should be stored in the folder "running_scenarios" &gt; "inputs".</t>
-  </si>
-  <si>
     <t>The first column of the sheet lists all parameters that can be modified in the program (otherwise, values from the file "parameters.py" or default values will be used).</t>
   </si>
   <si>
-    <t>Columns "Explanation" and "Type / Unit" have been introduced for convenience, but are not used by the program.</t>
-  </si>
-  <si>
-    <t>This file contains instructions for running different scenarios by rhizodep, based on the variations of specific parameters.</t>
-  </si>
-  <si>
-    <t>Deleting or introducing new lines of parameters or new columns of scenarios is allowed ; the name of the first three columns and the name of the parameters should not be changed without modifying the program.</t>
-  </si>
-  <si>
-    <t>Subsequent columns (starting at column D) correspond to each scenario to be tested, and must all begin with a unique integer value identifying the scenario.</t>
-  </si>
-  <si>
     <t>Relative ratio between the length of growing zone of the root (including meristem and elongation zone) and its radius</t>
   </si>
   <si>
@@ -1511,7 +1493,22 @@
     <t>Real number / mol of C used for structural mass per mol of C used for growth</t>
   </si>
   <si>
-    <t>sucrose_input_Swinnen_et_al_1994_starting_at_55_days.csv</t>
+    <t>This file contains instructions for running different scenarios by RhizoDep, based on the variations of specific parameters.</t>
+  </si>
+  <si>
+    <t>This file should be stored in the folder "scenarios" &gt; "inputs".</t>
+  </si>
+  <si>
+    <t>The sheet "scenarios_as_columns" enable to define a list of different scenarios to be simulated by rhizodep using the programm "running_scenarios.py".</t>
+  </si>
+  <si>
+    <t>Columns "Explanation", "Type / Unit" and "Reference values" have been introduced for convenience, but are not used by the program.</t>
+  </si>
+  <si>
+    <t>Subsequent columns (starting at column E) correspond to each scenario to be tested, and must all begin with a unique integer value identifying the scenario.</t>
+  </si>
+  <si>
+    <t>Deleting or introducing new lines of parameters or new columns of scenarios is allowed ; the name of the first four columns and the name of the parameters should not be changed without modifying the program.</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1952,12 +1949,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1971,12 +1962,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,7 +2141,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2298,17 +2283,9 @@
     <xf numFmtId="0" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="50" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2339,17 +2316,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="51" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="52" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="53" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="49" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="48" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2683,37 +2660,37 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>171</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>174</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -2723,13 +2700,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E201"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2741,7 +2718,7 @@
     <col min="5" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -2752,13 +2729,19 @@
         <v>93</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="91">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="E1" s="86">
+        <v>1</v>
+      </c>
+      <c r="F1" s="86">
+        <v>2</v>
+      </c>
+      <c r="G1" s="86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2771,11 +2754,17 @@
       <c r="D2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2788,45 +2777,63 @@
       <c r="D3" s="56">
         <v>1</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>462</v>
-      </c>
-      <c r="C4" s="75" t="s">
+      <c r="F3" s="76">
+        <v>1</v>
+      </c>
+      <c r="G3" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="C4" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
-        <v>461</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="C5" s="75" t="s">
+      <c r="F4" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>464</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="72" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2839,11 +2846,17 @@
       <c r="D6" s="55">
         <v>60</v>
       </c>
-      <c r="E6" s="80">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="76">
+        <v>1</v>
+      </c>
+      <c r="F6" s="76">
+        <v>1</v>
+      </c>
+      <c r="G6" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -2856,11 +2869,17 @@
       <c r="D7" s="40">
         <v>4.1666666999999998E-2</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="77">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="77">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="G7" s="77">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2873,11 +2892,17 @@
       <c r="D8" s="55">
         <v>5</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="77">
         <v>4.1666666999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="77">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="G8" s="77">
+        <v>4.1666666999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -2890,11 +2915,17 @@
       <c r="D9" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="80" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
@@ -2907,16 +2938,22 @@
       <c r="D10" s="53">
         <v>1</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="76">
+        <v>1</v>
+      </c>
+      <c r="G10" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>95</v>
@@ -2924,11 +2961,17 @@
       <c r="D11" s="53">
         <v>0</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="76">
+        <v>0</v>
+      </c>
+      <c r="G11" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
@@ -2941,11 +2984,17 @@
       <c r="D12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="80" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
@@ -2958,11 +3007,19 @@
       <c r="D13" s="41">
         <v>5.0000000000000001E-9</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="88">
         <v>5.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="88">
+        <f>E13*5</f>
+        <v>2.4999999999999999E-8</v>
+      </c>
+      <c r="G13" s="88">
+        <f>E13*20</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -2975,16 +3032,22 @@
       <c r="D14" s="53">
         <v>10</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="76">
+        <v>10</v>
+      </c>
+      <c r="G14" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>96</v>
@@ -2992,16 +3055,22 @@
       <c r="D15" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>96</v>
@@ -3009,16 +3078,22 @@
       <c r="D16" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>96</v>
@@ -3026,29 +3101,40 @@
       <c r="D17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D18" s="53">
-        <f>24*60*60</f>
         <v>86400</v>
       </c>
-      <c r="E18" s="80">
+      <c r="E18" s="76">
         <v>86400</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="76">
+        <v>86400</v>
+      </c>
+      <c r="G18" s="76">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
@@ -3061,11 +3147,17 @@
       <c r="D19" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -3078,16 +3170,22 @@
       <c r="D20" s="54">
         <v>3</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="76">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="76">
+        <v>3</v>
+      </c>
+      <c r="G20" s="76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>96</v>
@@ -3095,16 +3193,22 @@
       <c r="D21" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>96</v>
@@ -3112,16 +3216,22 @@
       <c r="D22" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>96</v>
@@ -3129,16 +3239,22 @@
       <c r="D23" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>96</v>
@@ -3146,16 +3262,22 @@
       <c r="D24" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>96</v>
@@ -3163,11 +3285,17 @@
       <c r="D25" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>12</v>
       </c>
@@ -3180,11 +3308,17 @@
       <c r="D26" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>13</v>
       </c>
@@ -3197,11 +3331,17 @@
       <c r="D27" s="54">
         <v>0.33</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="76">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="76">
+        <v>0.33</v>
+      </c>
+      <c r="G27" s="76">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
@@ -3214,11 +3354,17 @@
       <c r="D28" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="80" t="s">
+      <c r="E28" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>9</v>
       </c>
@@ -3231,16 +3377,22 @@
       <c r="D29" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>96</v>
@@ -3248,11 +3400,17 @@
       <c r="D30" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>21</v>
       </c>
@@ -3265,11 +3423,17 @@
       <c r="D31" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>22</v>
       </c>
@@ -3280,13 +3444,19 @@
         <v>92</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="E32" s="80" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>23</v>
       </c>
@@ -3299,11 +3469,17 @@
       <c r="D33" s="43">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="78">
         <v>9.9999999999999995E-7</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="78">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G33" s="78">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>24</v>
       </c>
@@ -3316,11 +3492,17 @@
       <c r="D34" s="43">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="78">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G34" s="78">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>25</v>
       </c>
@@ -3333,11 +3515,17 @@
       <c r="D35" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>26</v>
       </c>
@@ -3350,11 +3538,17 @@
       <c r="D36" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="76" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="76" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>27</v>
       </c>
@@ -3367,11 +3561,17 @@
       <c r="D37" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>28</v>
       </c>
@@ -3384,11 +3584,17 @@
       <c r="D38" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="E38" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
@@ -3401,11 +3607,17 @@
       <c r="D39" s="52">
         <v>120</v>
       </c>
-      <c r="E39" s="80">
+      <c r="E39" s="76">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="76">
+        <v>120</v>
+      </c>
+      <c r="G39" s="76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>30</v>
       </c>
@@ -3418,11 +3630,17 @@
       <c r="D40" s="52">
         <v>0</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="76">
+        <v>0</v>
+      </c>
+      <c r="G40" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>31</v>
       </c>
@@ -3435,11 +3653,17 @@
       <c r="D41" s="52">
         <v>0</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="76">
+        <v>0</v>
+      </c>
+      <c r="G41" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>32</v>
       </c>
@@ -3452,16 +3676,22 @@
       <c r="D42" s="52">
         <v>-0.1</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="76">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="76">
+        <v>-0.1</v>
+      </c>
+      <c r="G42" s="76">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>100</v>
@@ -3469,16 +3699,22 @@
       <c r="D43" s="52">
         <v>-0.2</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="76">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="76">
+        <v>-0.2</v>
+      </c>
+      <c r="G43" s="76">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>100</v>
@@ -3486,11 +3722,17 @@
       <c r="D44" s="52">
         <v>-0.2</v>
       </c>
-      <c r="E44" s="80">
+      <c r="E44" s="76">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="76">
+        <v>-0.2</v>
+      </c>
+      <c r="G44" s="76">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>33</v>
       </c>
@@ -3503,11 +3745,17 @@
       <c r="D45" s="52">
         <v>-0.2</v>
       </c>
-      <c r="E45" s="80">
+      <c r="E45" s="76">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="G45" s="76">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>35</v>
       </c>
@@ -3520,16 +3768,22 @@
       <c r="D46" s="52">
         <v>0</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="76">
+        <v>0</v>
+      </c>
+      <c r="G46" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>97</v>
@@ -3537,16 +3791,22 @@
       <c r="D47" s="52">
         <v>1200</v>
       </c>
-      <c r="E47" s="80">
+      <c r="E47" s="76">
         <v>1200</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="76">
+        <v>1200</v>
+      </c>
+      <c r="G47" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>97</v>
@@ -3554,28 +3814,40 @@
       <c r="D48" s="52">
         <v>1200</v>
       </c>
-      <c r="E48" s="80">
+      <c r="E48" s="76">
         <v>1200</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="76">
+        <v>1200</v>
+      </c>
+      <c r="G48" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="E49" s="84" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="E49" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="G49" s="80" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>15</v>
       </c>
@@ -3588,11 +3860,17 @@
       <c r="D50" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="80" t="s">
+      <c r="E50" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>16</v>
       </c>
@@ -3605,11 +3883,17 @@
       <c r="D51" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>17</v>
       </c>
@@ -3622,11 +3906,17 @@
       <c r="D52" s="57">
         <v>0</v>
       </c>
-      <c r="E52" s="80">
+      <c r="E52" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="76">
+        <v>0</v>
+      </c>
+      <c r="G52" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>18</v>
       </c>
@@ -3639,11 +3929,17 @@
       <c r="D53" s="57">
         <v>0.5</v>
       </c>
-      <c r="E53" s="80">
+      <c r="E53" s="76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>19</v>
       </c>
@@ -3656,11 +3952,17 @@
       <c r="D54" s="57">
         <v>0.05</v>
       </c>
-      <c r="E54" s="80">
+      <c r="E54" s="76">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="G54" s="76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>36</v>
       </c>
@@ -3673,16 +3975,22 @@
       <c r="D55" s="58">
         <v>1E-3</v>
       </c>
-      <c r="E55" s="82">
+      <c r="E55" s="78">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="78">
+        <v>1E-3</v>
+      </c>
+      <c r="G55" s="78">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>100</v>
@@ -3690,11 +3998,17 @@
       <c r="D56" s="58">
         <v>0</v>
       </c>
-      <c r="E56" s="80">
+      <c r="E56" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="76">
+        <v>0</v>
+      </c>
+      <c r="G56" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>37</v>
       </c>
@@ -3702,16 +4016,22 @@
         <v>150</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D57" s="45">
         <v>1E-4</v>
       </c>
-      <c r="E57" s="80">
+      <c r="E57" s="76">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="76">
+        <v>1E-4</v>
+      </c>
+      <c r="G57" s="76">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>38</v>
       </c>
@@ -3719,16 +4039,22 @@
         <v>151</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D58" s="45">
         <v>1E-4</v>
       </c>
-      <c r="E58" s="80">
+      <c r="E58" s="76">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="76">
+        <v>1E-4</v>
+      </c>
+      <c r="G58" s="76">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
         <v>39</v>
       </c>
@@ -3741,11 +4067,17 @@
       <c r="D59" s="61">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="E59" s="80">
+      <c r="E59" s="76">
         <v>6.9999999999999999E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="76">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G59" s="76">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>40</v>
       </c>
@@ -3758,16 +4090,22 @@
       <c r="D60" s="61">
         <v>1.22E-4</v>
       </c>
-      <c r="E60" s="80">
+      <c r="E60" s="76">
         <v>1.22E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="76">
+        <v>1.22E-4</v>
+      </c>
+      <c r="G60" s="76">
+        <v>1.22E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>100</v>
@@ -3775,11 +4113,17 @@
       <c r="D61" s="61">
         <v>1</v>
       </c>
-      <c r="E61" s="80">
+      <c r="E61" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="76">
+        <v>1</v>
+      </c>
+      <c r="G61" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
         <v>41</v>
       </c>
@@ -3792,16 +4136,22 @@
       <c r="D62" s="61">
         <v>0.95</v>
       </c>
-      <c r="E62" s="80">
+      <c r="E62" s="76">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="76">
+        <v>0.95</v>
+      </c>
+      <c r="G62" s="76">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>96</v>
@@ -3809,11 +4159,17 @@
       <c r="D63" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="80" t="s">
+      <c r="E63" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>90</v>
       </c>
@@ -3826,16 +4182,22 @@
       <c r="D64" s="61">
         <v>5</v>
       </c>
-      <c r="E64" s="80">
+      <c r="E64" s="76">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="76">
+        <v>5</v>
+      </c>
+      <c r="G64" s="76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>96</v>
@@ -3843,11 +4205,17 @@
       <c r="D65" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="80" t="s">
+      <c r="E65" s="76" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>42</v>
       </c>
@@ -3860,16 +4228,22 @@
       <c r="D66" s="61">
         <v>50</v>
       </c>
-      <c r="E66" s="80">
+      <c r="E66" s="76">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="76">
+        <v>50</v>
+      </c>
+      <c r="G66" s="76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>108</v>
@@ -3877,16 +4251,22 @@
       <c r="D67" s="46">
         <v>1453890.8941884842</v>
       </c>
-      <c r="E67" s="81">
+      <c r="E67" s="77">
         <v>1453890.8941884842</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="77">
+        <v>1453890.8941884842</v>
+      </c>
+      <c r="G67" s="77">
+        <v>1453890.8941884842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>106</v>
@@ -3894,11 +4274,17 @@
       <c r="D68" s="61">
         <v>1.3888888888888888E-5</v>
       </c>
-      <c r="E68" s="81">
+      <c r="E68" s="77">
         <v>1.3888888888888888E-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="77">
+        <v>1.3888888888888888E-5</v>
+      </c>
+      <c r="G68" s="77">
+        <v>1.3888888888888888E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="18" t="s">
         <v>44</v>
       </c>
@@ -3911,11 +4297,17 @@
       <c r="D69" s="61">
         <v>4.5763888888888888E-4</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="77">
         <v>6.5011574074074071E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="77">
+        <v>6.5011574074074071E-4</v>
+      </c>
+      <c r="G69" s="77">
+        <v>6.5011574074074071E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>45</v>
       </c>
@@ -3928,11 +4320,17 @@
       <c r="D70" s="61">
         <v>3.63E-3</v>
       </c>
-      <c r="E70" s="80">
+      <c r="E70" s="76">
         <v>4.7400000000000003E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="76">
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="G70" s="76">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="18" t="s">
         <v>46</v>
       </c>
@@ -3945,11 +4343,17 @@
       <c r="D71" s="46">
         <v>491356.80000000005</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="77">
         <v>282528</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="77">
+        <v>282528</v>
+      </c>
+      <c r="G71" s="77">
+        <v>282528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="18" t="s">
         <v>47</v>
       </c>
@@ -3962,11 +4366,17 @@
       <c r="D72" s="61">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E72" s="80">
+      <c r="E72" s="76">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="76">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G72" s="76">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="18" t="s">
         <v>48</v>
       </c>
@@ -3979,11 +4389,17 @@
       <c r="D73" s="61">
         <v>0.25862068965517243</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="81">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="81">
+        <v>0.16</v>
+      </c>
+      <c r="G73" s="81">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="18" t="s">
         <v>49</v>
       </c>
@@ -3996,50 +4412,68 @@
       <c r="D74" s="61">
         <v>0</v>
       </c>
-      <c r="E74" s="80">
+      <c r="E74" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="76">
+        <v>0</v>
+      </c>
+      <c r="G74" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D75" s="62">
         <v>745476480000</v>
       </c>
-      <c r="E75" s="81">
+      <c r="E75" s="77">
         <v>745476480000</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="77">
+        <v>745476480000</v>
+      </c>
+      <c r="G75" s="77">
+        <v>745476480000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D76" s="62">
         <v>100</v>
       </c>
-      <c r="E76" s="80">
+      <c r="E76" s="76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="76">
+        <v>100</v>
+      </c>
+      <c r="G76" s="76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" s="35" t="s">
         <v>421</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>427</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>96</v>
@@ -4047,16 +4481,22 @@
       <c r="D77" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="E77" s="80" t="s">
+      <c r="E77" s="76" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="34" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C78" s="35" t="s">
         <v>108</v>
@@ -4064,16 +4504,22 @@
       <c r="D78" s="62">
         <v>29203.200000000001</v>
       </c>
-      <c r="E78" s="80">
+      <c r="E78" s="76">
         <v>21600</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="76">
+        <v>21600</v>
+      </c>
+      <c r="G78" s="76">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="B79" s="35" t="s">
         <v>417</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>423</v>
       </c>
       <c r="C79" s="35" t="s">
         <v>102</v>
@@ -4081,16 +4527,22 @@
       <c r="D79" s="62">
         <v>0.5</v>
       </c>
-      <c r="E79" s="80">
+      <c r="E79" s="76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C80" s="35" t="s">
         <v>108</v>
@@ -4098,16 +4550,22 @@
       <c r="D80" s="62">
         <v>387936</v>
       </c>
-      <c r="E80" s="80">
+      <c r="E80" s="76">
         <v>60479.999999999993</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="76">
+        <v>60479.999999999993</v>
+      </c>
+      <c r="G80" s="76">
+        <v>60479.999999999993</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="B81" s="35" t="s">
         <v>418</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>424</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>102</v>
@@ -4115,16 +4573,22 @@
       <c r="D81" s="62">
         <v>0.85</v>
       </c>
-      <c r="E81" s="80">
+      <c r="E81" s="76">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="76">
+        <v>0.85</v>
+      </c>
+      <c r="G81" s="76">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="34" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>108</v>
@@ -4132,16 +4596,22 @@
       <c r="D82" s="62">
         <v>518400</v>
       </c>
-      <c r="E82" s="80">
+      <c r="E82" s="76">
         <v>518400</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="76">
+        <v>518400</v>
+      </c>
+      <c r="G82" s="76">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="34" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>108</v>
@@ -4149,11 +4619,17 @@
       <c r="D83" s="62">
         <v>5184000</v>
       </c>
-      <c r="E83" s="80">
+      <c r="E83" s="76">
         <v>5184000</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="76">
+        <v>5184000</v>
+      </c>
+      <c r="G83" s="76">
+        <v>5184000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>51</v>
       </c>
@@ -4166,11 +4642,17 @@
       <c r="D84" s="61">
         <v>259200</v>
       </c>
-      <c r="E84" s="82">
+      <c r="E84" s="78">
         <v>50000</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="78">
+        <v>50000</v>
+      </c>
+      <c r="G84" s="78">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
         <v>52</v>
       </c>
@@ -4178,16 +4660,22 @@
         <v>164</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D85" s="61">
         <v>140000</v>
       </c>
-      <c r="E85" s="80">
+      <c r="E85" s="76">
         <v>140000</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="76">
+        <v>140000</v>
+      </c>
+      <c r="G85" s="76">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="18" t="s">
         <v>53</v>
       </c>
@@ -4195,16 +4683,22 @@
         <v>165</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D86" s="61">
         <v>3.6636136999999999E-2</v>
       </c>
-      <c r="E86" s="81">
+      <c r="E86" s="77">
         <v>3.6636136999999999E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="77">
+        <v>3.6636136999999999E-2</v>
+      </c>
+      <c r="G86" s="77">
+        <v>3.6636136999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="18" t="s">
         <v>54</v>
       </c>
@@ -4217,11 +4711,17 @@
       <c r="D87" s="61">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="E87" s="80">
+      <c r="E87" s="76">
         <v>4.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="76">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G87" s="76">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>55</v>
       </c>
@@ -4234,16 +4734,22 @@
       <c r="D88" s="61">
         <v>0.05</v>
       </c>
-      <c r="E88" s="80">
+      <c r="E88" s="76">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="G88" s="76">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C89" s="21" t="s">
         <v>100</v>
@@ -4251,16 +4757,22 @@
       <c r="D89" s="63">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="E89" s="80">
+      <c r="E89" s="76">
         <v>6.0000000000000002E-6</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="76">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="G89" s="76">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>100</v>
@@ -4268,67 +4780,91 @@
       <c r="D90" s="63">
         <v>1E-3</v>
       </c>
-      <c r="E90" s="80">
+      <c r="E90" s="76">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="76">
+        <v>1E-3</v>
+      </c>
+      <c r="G90" s="76">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D91" s="63">
         <v>374999999.99999994</v>
       </c>
-      <c r="E91" s="80">
+      <c r="E91" s="76">
         <v>374999999.99999994</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="76">
+        <v>374999999.99999994</v>
+      </c>
+      <c r="G91" s="76">
+        <v>374999999.99999994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D92" s="63">
         <v>3.7037037037037038E-3</v>
       </c>
-      <c r="E92" s="81">
+      <c r="E92" s="77">
         <v>3.7037037037037038E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="77">
+        <v>3.7037037037037038E-3</v>
+      </c>
+      <c r="G92" s="77">
+        <v>3.7037037037037038E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D93" s="63">
         <v>165600</v>
       </c>
-      <c r="E93" s="80">
+      <c r="E93" s="76">
         <v>165600</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="76">
+        <v>165600</v>
+      </c>
+      <c r="G93" s="76">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>111</v>
@@ -4336,16 +4872,22 @@
       <c r="D94" s="52">
         <v>20</v>
       </c>
-      <c r="E94" s="80">
+      <c r="E94" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="76">
+        <v>20</v>
+      </c>
+      <c r="G94" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>102</v>
@@ -4353,16 +4895,22 @@
       <c r="D95" s="52">
         <v>1</v>
       </c>
-      <c r="E95" s="80">
+      <c r="E95" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="76">
+        <v>1</v>
+      </c>
+      <c r="G95" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>104</v>
@@ -4370,84 +4918,114 @@
       <c r="D96" s="52">
         <v>21</v>
       </c>
-      <c r="E96" s="80">
+      <c r="E96" s="76">
         <v>21</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="76">
+        <v>21</v>
+      </c>
+      <c r="G96" s="76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B97" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C97" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="D97" s="60">
         <v>0.64</v>
       </c>
-      <c r="E97" s="80">
+      <c r="E97" s="76">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="76">
+        <v>0.64</v>
+      </c>
+      <c r="G97" s="76">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="24" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D98" s="60">
         <v>8</v>
       </c>
-      <c r="E98" s="80">
+      <c r="E98" s="76">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="76">
+        <v>8</v>
+      </c>
+      <c r="G98" s="76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="24" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D99" s="60">
         <v>10</v>
       </c>
-      <c r="E99" s="80">
+      <c r="E99" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="76">
+        <v>10</v>
+      </c>
+      <c r="G99" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="24" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D100" s="60">
         <v>8</v>
       </c>
-      <c r="E100" s="80">
+      <c r="E100" s="76">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="76">
+        <v>8</v>
+      </c>
+      <c r="G100" s="76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="24" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C101" s="25" t="s">
         <v>104</v>
@@ -4455,33 +5033,45 @@
       <c r="D101" s="60">
         <v>1</v>
       </c>
-      <c r="E101" s="80">
+      <c r="E101" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="76">
+        <v>1</v>
+      </c>
+      <c r="G101" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="24" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D102" s="60">
         <v>0.5</v>
       </c>
-      <c r="E102" s="80">
+      <c r="E102" s="76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="G102" s="76">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>108</v>
@@ -4489,16 +5079,22 @@
       <c r="D103" s="60">
         <v>0</v>
       </c>
-      <c r="E103" s="80">
+      <c r="E103" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="76">
+        <v>0</v>
+      </c>
+      <c r="G103" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="24" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C104" s="25" t="s">
         <v>108</v>
@@ -4506,152 +5102,206 @@
       <c r="D104" s="60">
         <v>1589759.9999999998</v>
       </c>
-      <c r="E104" s="86">
+      <c r="E104" s="82">
         <v>1589759.9999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+      <c r="G104" s="82">
+        <v>1589759.9999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="24" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D105" s="60">
-        <v>6171428.5714285718</v>
-      </c>
-      <c r="E105" s="86">
         <v>455327.99999999994</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="82">
+        <v>455327.99999999994</v>
+      </c>
+      <c r="F105" s="82">
+        <v>455327.99999999994</v>
+      </c>
+      <c r="G105" s="82">
+        <v>455327.99999999994</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C106" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D106" s="60">
-        <v>6171428.5714285718</v>
-      </c>
-      <c r="E106" s="86">
         <v>664416</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="82">
+        <v>664416</v>
+      </c>
+      <c r="F106" s="82">
+        <v>664416</v>
+      </c>
+      <c r="G106" s="82">
+        <v>664416</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D107" s="69">
         <v>100</v>
       </c>
-      <c r="E107" s="86">
+      <c r="E107" s="82">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="82">
+        <v>100</v>
+      </c>
+      <c r="G107" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D108" s="69">
         <v>280800</v>
       </c>
-      <c r="E108" s="86">
+      <c r="E108" s="82">
         <v>280800</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="82">
+        <v>280800</v>
+      </c>
+      <c r="G108" s="82">
+        <v>280800</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D109" s="69">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E109" s="87">
+      <c r="E109" s="83">
         <v>1.2847222222222224E-5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="83">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="G109" s="83">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="C110" s="25" t="s">
         <v>434</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>440</v>
       </c>
       <c r="D110" s="69">
         <v>100</v>
       </c>
-      <c r="E110" s="86">
+      <c r="E110" s="82">
         <v>90</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="82">
+        <v>90</v>
+      </c>
+      <c r="G110" s="82">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="24" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D111" s="69">
         <v>459648</v>
       </c>
-      <c r="E111" s="86">
+      <c r="E111" s="82">
         <v>459648</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="82">
+        <v>459648</v>
+      </c>
+      <c r="G111" s="82">
+        <v>459648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D112" s="69">
         <v>1.2847222222222224E-5</v>
       </c>
-      <c r="E112" s="87">
+      <c r="E112" s="83">
         <v>1.2847222222222224E-5</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="83">
+        <v>1.2847222222222224E-5</v>
+      </c>
+      <c r="G112" s="83">
+        <v>1.2847222222222224E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C113" s="25" t="s">
         <v>108</v>
@@ -4659,16 +5309,22 @@
       <c r="D113" s="69">
         <v>21600</v>
       </c>
-      <c r="E113" s="86">
+      <c r="E113" s="82">
         <v>21600</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="82">
+        <v>21600</v>
+      </c>
+      <c r="G113" s="82">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C114" s="25" t="s">
         <v>108</v>
@@ -4676,50 +5332,68 @@
       <c r="D114" s="69">
         <v>172800</v>
       </c>
-      <c r="E114" s="86">
+      <c r="E114" s="82">
         <v>43200</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="82">
+        <v>43200</v>
+      </c>
+      <c r="G114" s="82">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D115" s="52">
         <v>0.8</v>
       </c>
-      <c r="E115" s="80">
+      <c r="E115" s="76">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="G115" s="76">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D116" s="43">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E116" s="81">
+      <c r="E116" s="77">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="77">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="G116" s="77">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>112</v>
@@ -4727,152 +5401,206 @@
       <c r="D117" s="43">
         <v>5.7899999999999998E-7</v>
       </c>
-      <c r="E117" s="87">
+      <c r="E117" s="83">
         <v>5.7899999999999998E-7</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="83">
+        <v>5.7899999999999998E-7</v>
+      </c>
+      <c r="G117" s="83">
+        <v>5.7899999999999998E-7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D118" s="43">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="E118" s="81">
+      <c r="E118" s="77">
         <v>2.0833333333333335E-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="77">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="G118" s="77">
+        <v>2.0833333333333335E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D119" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E119" s="81">
+      <c r="E119" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="77">
+        <v>0</v>
+      </c>
+      <c r="G119" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D120" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E120" s="81">
+      <c r="E120" s="77">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="70" t="s">
-        <v>451</v>
-      </c>
-      <c r="B121" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="D121" s="72">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="E121" s="88" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="70" t="s">
+      <c r="F120" s="77">
+        <v>0</v>
+      </c>
+      <c r="G120" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D121" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="E121" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="F121" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="G121" s="84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B122" s="71" t="s">
-        <v>454</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>455</v>
-      </c>
-      <c r="D122" s="73">
-        <v>1.6666666666666666E-4</v>
-      </c>
-      <c r="E122" s="88" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="70" t="s">
-        <v>465</v>
-      </c>
-      <c r="B123" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="C123" s="71" t="s">
+      <c r="B122" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="D122" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="F122" s="84" t="s">
+        <v>406</v>
+      </c>
+      <c r="G122" s="84" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="C123" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D123" s="73" t="s">
+      <c r="D123" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E123" s="88" t="s">
+      <c r="E123" s="84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G123" s="84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D124" s="59">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E124" s="82">
+      <c r="E124" s="78">
         <v>5.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="78">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G124" s="78">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D125" s="68">
         <v>1.0000000000000001E-9</v>
       </c>
-      <c r="E125" s="82">
+      <c r="E125" s="78">
         <v>4.9999999999999999E-13</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="78">
+        <v>4.9999999999999999E-13</v>
+      </c>
+      <c r="G125" s="78">
+        <v>4.9999999999999999E-13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C126" s="23" t="s">
         <v>111</v>
@@ -4880,33 +5608,45 @@
       <c r="D126" s="59">
         <v>10</v>
       </c>
-      <c r="E126" s="80">
+      <c r="E126" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="76">
+        <v>10</v>
+      </c>
+      <c r="G126" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D127" s="59">
         <v>-0.04</v>
       </c>
-      <c r="E127" s="80">
+      <c r="E127" s="76">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="76">
+        <v>-0.04</v>
+      </c>
+      <c r="G127" s="76">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C128" s="23" t="s">
         <v>102</v>
@@ -4914,16 +5654,22 @@
       <c r="D128" s="59">
         <v>2.9</v>
       </c>
-      <c r="E128" s="80">
+      <c r="E128" s="76">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="76">
+        <v>2.9</v>
+      </c>
+      <c r="G128" s="76">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>97</v>
@@ -4931,33 +5677,45 @@
       <c r="D129" s="59">
         <v>1</v>
       </c>
-      <c r="E129" s="80">
+      <c r="E129" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="B130" s="71" t="s">
-        <v>452</v>
-      </c>
-      <c r="C130" s="71" t="s">
-        <v>453</v>
-      </c>
-      <c r="D130" s="72">
+      <c r="F129" s="76">
+        <v>1</v>
+      </c>
+      <c r="G129" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="D130" s="59">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="E130" s="82">
+      <c r="E130" s="78">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="78">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G130" s="78">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C131" s="23" t="s">
         <v>111</v>
@@ -4965,33 +5723,45 @@
       <c r="D131" s="59">
         <v>10</v>
       </c>
-      <c r="E131" s="80">
+      <c r="E131" s="76">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="76">
+        <v>10</v>
+      </c>
+      <c r="G131" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D132" s="59">
         <v>-0.04</v>
       </c>
-      <c r="E132" s="80">
+      <c r="E132" s="76">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="76">
+        <v>-0.04</v>
+      </c>
+      <c r="G132" s="76">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C133" s="23" t="s">
         <v>102</v>
@@ -4999,16 +5769,22 @@
       <c r="D133" s="59">
         <v>2.9</v>
       </c>
-      <c r="E133" s="80">
+      <c r="E133" s="76">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="76">
+        <v>2.9</v>
+      </c>
+      <c r="G133" s="76">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C134" s="23" t="s">
         <v>97</v>
@@ -5016,16 +5792,22 @@
       <c r="D134" s="59">
         <v>1</v>
       </c>
-      <c r="E134" s="80">
+      <c r="E134" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="76">
+        <v>1</v>
+      </c>
+      <c r="G134" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C135" s="23" t="s">
         <v>102</v>
@@ -5033,28 +5815,40 @@
       <c r="D135" s="59">
         <v>0</v>
       </c>
-      <c r="E135" s="80">
+      <c r="E135" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="76">
+        <v>0</v>
+      </c>
+      <c r="G135" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D136" s="48">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E136" s="92">
+      <c r="E136" s="78">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="78">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G136" s="78">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
         <v>56</v>
       </c>
@@ -5062,16 +5856,22 @@
         <v>168</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D137" s="47">
         <v>0</v>
       </c>
-      <c r="E137" s="80">
+      <c r="E137" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="76">
+        <v>0</v>
+      </c>
+      <c r="G137" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="24" t="s">
         <v>57</v>
       </c>
@@ -5079,16 +5879,22 @@
         <v>169</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D138" s="47">
         <v>2E-3</v>
       </c>
-      <c r="E138" s="80">
+      <c r="E138" s="76">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="76">
+        <v>2E-3</v>
+      </c>
+      <c r="G138" s="76">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="24" t="s">
         <v>58</v>
       </c>
@@ -5096,38 +5902,50 @@
         <v>170</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D139" s="47">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="E139" s="82">
+      <c r="E139" s="78">
         <v>3.9999999999999998E-6</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="78">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G139" s="78">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D140" s="47">
         <v>3.7699999999999999E-10</v>
       </c>
-      <c r="E140" s="82">
+      <c r="E140" s="78">
         <v>3.7699999999999999E-10</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="78">
+        <v>3.7699999999999999E-10</v>
+      </c>
+      <c r="G140" s="78">
+        <v>3.7699999999999999E-10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C141" s="25" t="s">
         <v>111</v>
@@ -5135,33 +5953,45 @@
       <c r="D141" s="47">
         <v>20</v>
       </c>
-      <c r="E141" s="80">
+      <c r="E141" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="76">
+        <v>20</v>
+      </c>
+      <c r="G141" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="24" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D142" s="47">
         <v>-0.06</v>
       </c>
-      <c r="E142" s="80">
+      <c r="E142" s="76">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="76">
+        <v>-0.06</v>
+      </c>
+      <c r="G142" s="76">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C143" s="25" t="s">
         <v>102</v>
@@ -5169,16 +5999,22 @@
       <c r="D143" s="47">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E143" s="80">
+      <c r="E143" s="76">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="76">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G143" s="76">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C144" s="25" t="s">
         <v>97</v>
@@ -5186,50 +6022,68 @@
       <c r="D144" s="47">
         <v>1</v>
       </c>
-      <c r="E144" s="80">
+      <c r="E144" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="76">
+        <v>1</v>
+      </c>
+      <c r="G144" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D145" s="47">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E145" s="82">
+      <c r="E145" s="78">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="78">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G145" s="78">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D146" s="43">
         <v>5.8333333333333335E-9</v>
       </c>
-      <c r="E146" s="82">
+      <c r="E146" s="78">
         <v>5.8333333333333335E-9</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="78">
+        <v>5.8333333333333335E-9</v>
+      </c>
+      <c r="G146" s="78">
+        <v>5.8333333333333335E-9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>111</v>
@@ -5237,33 +6091,45 @@
       <c r="D147" s="52">
         <v>20</v>
       </c>
-      <c r="E147" s="80">
+      <c r="E147" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="76">
+        <v>20</v>
+      </c>
+      <c r="G147" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D148" s="52">
         <v>-0.06</v>
       </c>
-      <c r="E148" s="80">
+      <c r="E148" s="76">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="76">
+        <v>-0.06</v>
+      </c>
+      <c r="G148" s="76">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>102</v>
@@ -5271,16 +6137,22 @@
       <c r="D149" s="52">
         <v>0.89100000000000001</v>
       </c>
-      <c r="E149" s="80">
+      <c r="E149" s="76">
         <v>0.89100000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="76">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="G149" s="76">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>97</v>
@@ -5288,50 +6160,68 @@
       <c r="D150" s="52">
         <v>1</v>
       </c>
-      <c r="E150" s="80">
+      <c r="E150" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="76">
+        <v>1</v>
+      </c>
+      <c r="G150" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D151" s="52">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="E151" s="82">
+      <c r="E151" s="78">
         <v>4.0000000000000003E-5</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="78">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="G151" s="78">
+        <v>4.0000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D152" s="42">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="E152" s="82">
+      <c r="E152" s="78">
         <v>4.0000000000000001E-8</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="78">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="G152" s="78">
+        <v>4.0000000000000001E-8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>111</v>
@@ -5339,33 +6229,45 @@
       <c r="D153" s="54">
         <v>20</v>
       </c>
-      <c r="E153" s="80">
+      <c r="E153" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="76">
+        <v>20</v>
+      </c>
+      <c r="G153" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D154" s="54">
         <v>-4.4200000000000003E-2</v>
       </c>
-      <c r="E154" s="80">
+      <c r="E154" s="76">
         <v>-4.4200000000000003E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="76">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="G154" s="76">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>102</v>
@@ -5373,16 +6275,22 @@
       <c r="D155" s="54">
         <v>1.55</v>
       </c>
-      <c r="E155" s="80">
+      <c r="E155" s="76">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="76">
+        <v>1.55</v>
+      </c>
+      <c r="G155" s="76">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>97</v>
@@ -5390,50 +6298,68 @@
       <c r="D156" s="54">
         <v>1</v>
       </c>
-      <c r="E156" s="80">
+      <c r="E156" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="76">
+        <v>1</v>
+      </c>
+      <c r="G156" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D157" s="54">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="E157" s="80">
+      <c r="E157" s="76">
         <v>2.7799999999999998E-4</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="76">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="G157" s="76">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D158" s="64">
         <v>6.3200000000000001E-3</v>
       </c>
-      <c r="E158" s="82">
+      <c r="E158" s="78">
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="78">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G158" s="78">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C159" s="27" t="s">
         <v>111</v>
@@ -5441,33 +6367,45 @@
       <c r="D159" s="64">
         <v>20</v>
       </c>
-      <c r="E159" s="80">
+      <c r="E159" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="76">
+        <v>20</v>
+      </c>
+      <c r="G159" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D160" s="64">
         <v>0</v>
       </c>
-      <c r="E160" s="80">
+      <c r="E160" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="76">
+        <v>0</v>
+      </c>
+      <c r="G160" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C161" s="27" t="s">
         <v>102</v>
@@ -5475,16 +6413,22 @@
       <c r="D161" s="64">
         <v>1</v>
       </c>
-      <c r="E161" s="80">
+      <c r="E161" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="76">
+        <v>1</v>
+      </c>
+      <c r="G161" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C162" s="27" t="s">
         <v>97</v>
@@ -5492,16 +6436,22 @@
       <c r="D162" s="64">
         <v>0</v>
       </c>
-      <c r="E162" s="80">
+      <c r="E162" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="76">
+        <v>0</v>
+      </c>
+      <c r="G162" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C163" s="27" t="s">
         <v>102</v>
@@ -5509,33 +6459,45 @@
       <c r="D163" s="64">
         <v>0.4</v>
       </c>
-      <c r="E163" s="80">
+      <c r="E163" s="76">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="G163" s="76">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>80</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D164" s="49">
         <v>3.2100000000000002E-6</v>
       </c>
-      <c r="E164" s="82">
+      <c r="E164" s="78">
         <v>2.0000000000000001E-9</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="78">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="G164" s="78">
+        <v>2.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C165" s="33" t="s">
         <v>111</v>
@@ -5543,33 +6505,45 @@
       <c r="D165" s="65">
         <v>25</v>
       </c>
-      <c r="E165" s="80">
+      <c r="E165" s="76">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="76">
+        <v>25</v>
+      </c>
+      <c r="G165" s="76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D166" s="65">
         <v>0</v>
       </c>
-      <c r="E166" s="80">
+      <c r="E166" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="76">
+        <v>0</v>
+      </c>
+      <c r="G166" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C167" s="33" t="s">
         <v>102</v>
@@ -5577,16 +6551,22 @@
       <c r="D167" s="65">
         <v>3.98</v>
       </c>
-      <c r="E167" s="80">
+      <c r="E167" s="76">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="76">
+        <v>3.98</v>
+      </c>
+      <c r="G167" s="76">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="32" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>97</v>
@@ -5594,50 +6574,68 @@
       <c r="D168" s="65">
         <v>1</v>
       </c>
-      <c r="E168" s="80">
+      <c r="E168" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="76">
+        <v>1</v>
+      </c>
+      <c r="G168" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="32" t="s">
         <v>81</v>
       </c>
       <c r="B169" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C169" s="33" t="s">
         <v>199</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>205</v>
       </c>
       <c r="D169" s="49">
         <v>1.6666666666666666E-4</v>
       </c>
-      <c r="E169" s="93">
+      <c r="E169" s="77">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="77">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="G169" s="77">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B170" s="13" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D170" s="44">
         <v>1E-8</v>
       </c>
-      <c r="E170" s="82">
+      <c r="E170" s="78">
         <v>1E-8</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="78">
+        <v>1E-8</v>
+      </c>
+      <c r="G170" s="78">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C171" s="13" t="s">
         <v>111</v>
@@ -5645,33 +6643,45 @@
       <c r="D171" s="57">
         <v>20</v>
       </c>
-      <c r="E171" s="80">
+      <c r="E171" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="76">
+        <v>20</v>
+      </c>
+      <c r="G171" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D172" s="57">
         <v>0</v>
       </c>
-      <c r="E172" s="80">
+      <c r="E172" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="76">
+        <v>0</v>
+      </c>
+      <c r="G172" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C173" s="13" t="s">
         <v>102</v>
@@ -5679,16 +6689,22 @@
       <c r="D173" s="57">
         <v>2</v>
       </c>
-      <c r="E173" s="80">
+      <c r="E173" s="76">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="76">
+        <v>2</v>
+      </c>
+      <c r="G173" s="76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C174" s="13" t="s">
         <v>97</v>
@@ -5696,33 +6712,45 @@
       <c r="D174" s="57">
         <v>1</v>
       </c>
-      <c r="E174" s="80">
+      <c r="E174" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="76">
+        <v>1</v>
+      </c>
+      <c r="G174" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D175" s="44">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E175" s="93">
+      <c r="E175" s="77">
         <v>2.5000000000000002E-6</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="G175" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C176" s="13" t="s">
         <v>102</v>
@@ -5730,33 +6758,45 @@
       <c r="D176" s="57">
         <v>1</v>
       </c>
-      <c r="E176" s="80">
+      <c r="E176" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="76">
+        <v>1</v>
+      </c>
+      <c r="G176" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B177" s="29" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D177" s="50">
         <v>2.3533050791148895E-8</v>
       </c>
-      <c r="E177" s="80">
+      <c r="E177" s="76">
         <v>2.3533050791148899E-8</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="76">
+        <v>2.3533050791148899E-8</v>
+      </c>
+      <c r="G177" s="76">
+        <v>2.3533050791148899E-8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B178" s="29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>111</v>
@@ -5764,33 +6804,45 @@
       <c r="D178" s="66">
         <v>20</v>
       </c>
-      <c r="E178" s="80">
+      <c r="E178" s="76">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="76">
+        <v>20</v>
+      </c>
+      <c r="G178" s="76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D179" s="66">
         <v>-0.187</v>
       </c>
-      <c r="E179" s="80">
+      <c r="E179" s="76">
         <v>-0.187</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="76">
+        <v>-0.187</v>
+      </c>
+      <c r="G179" s="76">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B180" s="29" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C180" s="29" t="s">
         <v>102</v>
@@ -5798,16 +6850,22 @@
       <c r="D180" s="66">
         <v>2.48</v>
       </c>
-      <c r="E180" s="80">
+      <c r="E180" s="76">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="76">
+        <v>2.48</v>
+      </c>
+      <c r="G180" s="76">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C181" s="29" t="s">
         <v>97</v>
@@ -5815,50 +6873,68 @@
       <c r="D181" s="66">
         <v>1</v>
       </c>
-      <c r="E181" s="80">
+      <c r="E181" s="76">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="76">
+        <v>1</v>
+      </c>
+      <c r="G181" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D182" s="50">
         <v>6.1060227588121015E-4</v>
       </c>
-      <c r="E182" s="80">
+      <c r="E182" s="76">
         <v>6.1060227588121015E-4</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="76">
+        <v>6.1060227588121015E-4</v>
+      </c>
+      <c r="G182" s="76">
+        <v>6.1060227588121015E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D183" s="47">
         <v>6.41E-9</v>
       </c>
-      <c r="E183" s="89">
+      <c r="E183" s="85">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="G183" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C184" s="25" t="s">
         <v>111</v>
@@ -5866,33 +6942,45 @@
       <c r="D184" s="60">
         <v>25</v>
       </c>
-      <c r="E184" s="89">
+      <c r="E184" s="85">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="85">
+        <v>25</v>
+      </c>
+      <c r="G184" s="85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="24" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D185" s="60">
         <v>0</v>
       </c>
-      <c r="E185" s="89">
+      <c r="E185" s="85">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="85">
+        <v>0</v>
+      </c>
+      <c r="G185" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C186" s="25" t="s">
         <v>102</v>
@@ -5900,16 +6988,22 @@
       <c r="D186" s="60">
         <v>3.98</v>
       </c>
-      <c r="E186" s="89">
+      <c r="E186" s="85">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="85">
+        <v>3.98</v>
+      </c>
+      <c r="G186" s="85">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C187" s="25" t="s">
         <v>97</v>
@@ -5917,50 +7011,68 @@
       <c r="D187" s="60">
         <v>1</v>
       </c>
-      <c r="E187" s="89">
+      <c r="E187" s="85">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="85">
+        <v>1</v>
+      </c>
+      <c r="G187" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="24" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D188" s="47">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E188" s="93">
+      <c r="E188" s="77">
         <v>2.5000000000000002E-6</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="G188" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D189" s="41">
         <v>6.41E-9</v>
       </c>
-      <c r="E189" s="89">
+      <c r="E189" s="85">
         <v>3.9999999999999998E-7</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="G189" s="85">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C190" s="9" t="s">
         <v>111</v>
@@ -5968,33 +7080,45 @@
       <c r="D190" s="53">
         <v>25</v>
       </c>
-      <c r="E190" s="89">
+      <c r="E190" s="85">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="85">
+        <v>25</v>
+      </c>
+      <c r="G190" s="85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D191" s="53">
         <v>0</v>
       </c>
-      <c r="E191" s="89">
+      <c r="E191" s="85">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="85">
+        <v>0</v>
+      </c>
+      <c r="G191" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>102</v>
@@ -6002,16 +7126,22 @@
       <c r="D192" s="53">
         <v>3.98</v>
       </c>
-      <c r="E192" s="89">
+      <c r="E192" s="85">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="85">
+        <v>3.98</v>
+      </c>
+      <c r="G192" s="85">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>97</v>
@@ -6019,50 +7149,68 @@
       <c r="D193" s="53">
         <v>1</v>
       </c>
-      <c r="E193" s="89">
+      <c r="E193" s="85">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="85">
+        <v>1</v>
+      </c>
+      <c r="G193" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D194" s="41">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E194" s="93">
+      <c r="E194" s="77">
         <v>2.5000000000000002E-6</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="G194" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D195" s="51">
         <v>3.205E-9</v>
       </c>
-      <c r="E195" s="89">
+      <c r="E195" s="85">
         <v>1.9999999999999999E-7</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G195" s="85">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C196" s="31" t="s">
         <v>111</v>
@@ -6070,33 +7218,45 @@
       <c r="D196" s="67">
         <v>25</v>
       </c>
-      <c r="E196" s="89">
+      <c r="E196" s="85">
         <v>25</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="85">
+        <v>25</v>
+      </c>
+      <c r="G196" s="85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D197" s="67">
         <v>0</v>
       </c>
-      <c r="E197" s="89">
+      <c r="E197" s="85">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="85">
+        <v>0</v>
+      </c>
+      <c r="G197" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C198" s="31" t="s">
         <v>102</v>
@@ -6104,16 +7264,22 @@
       <c r="D198" s="67">
         <v>3.98</v>
       </c>
-      <c r="E198" s="89">
+      <c r="E198" s="85">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="85">
+        <v>3.98</v>
+      </c>
+      <c r="G198" s="85">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C199" s="31" t="s">
         <v>97</v>
@@ -6121,42 +7287,60 @@
       <c r="D199" s="67">
         <v>1</v>
       </c>
-      <c r="E199" s="89">
+      <c r="E199" s="85">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="85">
+        <v>1</v>
+      </c>
+      <c r="G199" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D200" s="51">
         <v>8.3333333333333331E-5</v>
       </c>
-      <c r="E200" s="93">
+      <c r="E200" s="77">
         <v>2.5000000000000002E-6</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="77" t="s">
-        <v>367</v>
-      </c>
-      <c r="B201" s="78" t="s">
-        <v>487</v>
-      </c>
-      <c r="C201" s="78" t="s">
+      <c r="F200" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="G200" s="77">
+        <v>2.5000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="B201" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="C201" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D201" s="79" t="s">
-        <v>488</v>
-      </c>
-      <c r="E201" s="90" t="s">
-        <v>488</v>
+      <c r="D201" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="E201" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="F201" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="G201" s="89" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -6184,18 +7368,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6231,7 +7415,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -6363,7 +7547,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -6399,7 +7583,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -6483,7 +7667,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -6495,7 +7679,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -6507,7 +7691,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -6519,7 +7703,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -6531,7 +7715,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -6543,7 +7727,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
@@ -6555,7 +7739,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -6567,7 +7751,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
@@ -6579,7 +7763,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -6591,7 +7775,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
@@ -6627,7 +7811,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
@@ -6639,7 +7823,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -6651,7 +7835,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
@@ -6663,7 +7847,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
@@ -6687,10 +7871,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6699,7 +7883,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -6711,7 +7895,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
@@ -6723,7 +7907,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -6759,7 +7943,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
@@ -6771,10 +7955,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6795,7 +7979,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
@@ -6807,7 +7991,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -6819,7 +8003,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -6831,7 +8015,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -6846,7 +8030,7 @@
         <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C56" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6855,7 +8039,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s">
         <v>51</v>
@@ -6867,7 +8051,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s">
         <v>52</v>
@@ -6879,7 +8063,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s">
         <v>53</v>
@@ -6891,7 +8075,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
         <v>54</v>
@@ -6918,7 +8102,7 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6930,7 +8114,7 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6942,7 +8126,7 @@
         <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6954,7 +8138,7 @@
         <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6966,7 +8150,7 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6987,7 +8171,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -6999,7 +8183,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -7011,7 +8195,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -7023,7 +8207,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
         <v>60</v>
@@ -7038,7 +8222,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C72" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7059,7 +8243,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
         <v>61</v>
@@ -7071,7 +8255,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
         <v>62</v>
@@ -7083,7 +8267,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
         <v>63</v>
@@ -7095,7 +8279,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
         <v>64</v>
@@ -7119,7 +8303,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
         <v>66</v>
@@ -7134,7 +8318,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7143,10 +8327,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7155,10 +8339,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7167,10 +8351,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7179,7 +8363,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s">
         <v>67</v>
@@ -7206,7 +8390,7 @@
         <v>80</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7215,10 +8399,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7227,10 +8411,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C88" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7239,10 +8423,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C89" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7251,7 +8435,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B90" t="s">
         <v>69</v>
@@ -7275,7 +8459,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
         <v>56</v>
@@ -7287,7 +8471,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B93" t="s">
         <v>57</v>
@@ -7299,7 +8483,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B94" t="s">
         <v>58</v>
@@ -7311,7 +8495,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
         <v>71</v>
@@ -7323,10 +8507,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B96" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C96" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7335,10 +8519,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C97" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7347,10 +8531,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C98" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7359,10 +8543,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B99" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C99" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7371,7 +8555,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
         <v>72</v>
@@ -7383,7 +8567,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B101" t="s">
         <v>73</v>
@@ -7395,10 +8579,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C102" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7407,10 +8591,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C103" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7419,10 +8603,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C104" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7431,10 +8615,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7443,7 +8627,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B106" t="s">
         <v>74</v>
@@ -7455,7 +8639,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
         <v>75</v>
@@ -7467,10 +8651,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B108" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C108" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7479,10 +8663,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B109" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C109" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7491,10 +8675,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C110" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7503,10 +8687,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C111" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7515,7 +8699,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B112" t="s">
         <v>76</v>
@@ -7527,7 +8711,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -7539,7 +8723,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B114" t="s">
         <v>78</v>
@@ -7551,10 +8735,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C115" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7563,10 +8747,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B116" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C116" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7575,10 +8759,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C117" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7587,10 +8771,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C118" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7599,7 +8783,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
         <v>79</v>
@@ -7611,7 +8795,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s">
         <v>80</v>
@@ -7623,10 +8807,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C121" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7635,10 +8819,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C122" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7650,7 +8834,7 @@
         <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C123" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7662,7 +8846,7 @@
         <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C124" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7686,7 +8870,7 @@
         <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C126" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7698,7 +8882,7 @@
         <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C127" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7710,7 +8894,7 @@
         <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C128" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7722,7 +8906,7 @@
         <v>85</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C129" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7734,7 +8918,7 @@
         <v>84</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C130" s="2" t="str">
         <f t="shared" si="1"/>
@@ -7746,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C131" s="2" t="str">
         <f t="shared" ref="C131:C169" si="2">IF(ISNA(VLOOKUP(A131,$B$2:$B$170,1,FALSE)),A131,"")</f>
@@ -7758,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C132" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7770,7 +8954,7 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C133" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7782,7 +8966,7 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C134" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7794,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C135" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7806,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C136" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7818,7 +9002,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C137" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7830,7 +9014,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7842,7 +9026,7 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7854,7 +9038,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C140" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7866,7 +9050,7 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C141" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7878,7 +9062,7 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C142" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7890,7 +9074,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C143" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7902,7 +9086,7 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C144" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7914,7 +9098,7 @@
         <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C145" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7926,7 +9110,7 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C146" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7938,7 +9122,7 @@
         <v>16</v>
       </c>
       <c r="B147" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C147" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7950,7 +9134,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C148" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7962,7 +9146,7 @@
         <v>18</v>
       </c>
       <c r="B149" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C149" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7974,7 +9158,7 @@
         <v>19</v>
       </c>
       <c r="B150" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C150" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7986,7 +9170,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C151" s="2" t="str">
         <f t="shared" si="2"/>
@@ -7998,7 +9182,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C152" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8010,7 +9194,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C153" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8022,7 +9206,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C154" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8034,7 +9218,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C155" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8046,7 +9230,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C156" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8058,7 +9242,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C157" s="2" t="str">
         <f t="shared" si="2"/>
@@ -8166,7 +9350,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C169" s="2" t="str">
         <f t="shared" si="2"/>
